--- a/tool/notepad_zbinfile/zbin/J9_Log.xlsx
+++ b/tool/notepad_zbinfile/zbin/J9_Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17770" windowHeight="7740" tabRatio="842" activeTab="5"/>
+    <workbookView windowWidth="17770" windowHeight="7740" tabRatio="842" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="COMMON" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="456">
   <si>
     <t>关键词</t>
   </si>
@@ -144,6 +144,28 @@
   </si>
   <si>
     <t>开始灭屏</t>
+  </si>
+  <si>
+    <t>ActivityTaskManager: START
+from uid</t>
+  </si>
+  <si>
+    <t>启动应用</t>
+  </si>
+  <si>
+    <t>Background activity start</t>
+  </si>
+  <si>
+    <t>后台启动应用</t>
+  </si>
+  <si>
+    <t>Abort background activity starts from</t>
+  </si>
+  <si>
+    <t>丢弃后台启动应用【无权限等】</t>
+  </si>
+  <si>
+    <t>/frameworks/base/services/core/java/com/android/server/wm/ActivityStarter.java#2221</t>
   </si>
   <si>
     <t>SND notifyWifiApStateChange</t>
@@ -827,6 +849,204 @@
   </si>
   <si>
     <t>停止导航</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: receive broadcast intent, action: android.intent.action.SCREEN_ON</t>
+  </si>
+  <si>
+    <t>检测到 亮屏 事件</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: receive broadcast intent, action: android.intent.action.SCREEN_OFF</t>
+  </si>
+  <si>
+    <t>检测到 灭屏 事件</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: SV</t>
+  </si>
+  <si>
+    <t>// /hardware/qcom/sdmxxx/gps/sdmxxx/gnss/ libgnss.so上报 , GnssLocationProvider.java 中  方法 void handleReportSvStatus(SvStatusInfo info) 中的 int SvStatusInfo.mSvCount【SV count:卫星个数 】 || 【 卫星可用个数 】 usedInFixCount  是int[] mSvidWithFlags 数组中 比特位 0x4 第2位 不为0 的个数 (【 int[] 】info.mSvidWithFlags[i] &amp; GnssStatus.GNSS_SV_FLAGS_USED_IN_FIX【0x4 2^2 第2个比特位】) != 0</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: PRN</t>
+  </si>
+  <si>
+    <t>"GnssLocationProvider.java 中  方法 void handleReportSvStatus(SvStatusInfo info) 【PRN-是伪随机噪声码（pseudo random noise code）的缩写，不是卫星卫星的编号】 【 SvStatusInfo.int[] mSvidWithFlags】;  mSvidWithFlags[i] &gt;&gt; GnssStatus.SVID_SHIFT_WIDTH【8,往右移动八位的值】的集合 ||【 GPS卫星所发送的信号包括载波信号、P码、C/A码和数据码(或称D码)等多种信号分量  每一卫星有一个特殊的PRN码《可用来作为卫星的 identify 》 码，所以用户接收机可以通过生成并匹配相同的码样解调一个特别的卫星信号】</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: SNR</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider.java 中  方法 void handleReportSvStatus(SvStatusInfo info) 【 SNR 信噪比  大于20一般认为信号有效 】 【 SvStatusInfo.float[] mCn0s 】</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: ELE</t>
+  </si>
+  <si>
+    <t>【 ELE是仰角 Elevation , 人与卫星 连接 与 水平面之间的夹角 仰角就是这颗卫星相对地平线的夹角  卫星在头顶是仰角 90度  仰角将从0°增加到90°，然后再减小到0° 】 【 SvStatusInfo.float[] mSvElevations; 】</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: AZM</t>
+  </si>
+  <si>
+    <t>【 Azm是方位角，Azimuth  表示这颗卫星在哪个方向，东北，西北。。。具体多少度 ，俯视图 大地平面 人为圆心  正北为0度 卫星垂直映射到水平面 与原点之间的夹角  】 【 SvStatusInfo.float[] mSvAzimuths;; 】</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: FRQ</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider.java 中  方法 void handleReportSvStatus(SvStatusInfo info) 【 FRQ 频率?  】 【 SvStatusInfo.float[] mSvCarrierFreqs;;; 】</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: FLG</t>
+  </si>
+  <si>
+    <t>【 A=第1位=含有历书数据    E=0位=含有星历数据   U=第2位=卫星是否可用 F=第3位=是否含有频率信息】 【 SvStatusInfo.int[] mSvidWithFlags 中最低四位bit位的lag  】 【 SvStatusInfo.float[] mSvCarrierFreqs;;; 】</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: GPS_STATUS_ENGINE_ON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GPS 获取卫星数据引擎 打开 </t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: GPS_STATUS_ENGINE_OFF</t>
+  </si>
+  <si>
+    <t>GPS 获取卫星数据引擎 关闭</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: GPS_STATUS_SESSION_BEGIN</t>
+  </si>
+  <si>
+    <t>GPS 获取卫星数据Session 会话 开始</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: GPS_STATUS_SESSION_END</t>
+  </si>
+  <si>
+    <t>GPS 获取卫星数据Session 会话结束 一般已经得到了一些位置卫星数据</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: TTFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">冷启动完成时间  (毫秒 )// ttff的意思是Time to First Fix，就是到了一个完全陌生的地方，GPS里面没有存任何信息// 时间也不对的情况下，从开机到得到坐标信息和时间信息的时间。(也叫冷启动时间）// 这个理想值是18秒。一般现代的GPS都可以在30秒定位。  冷启动完成时间 </t>
+  </si>
+  <si>
+    <t>LocationManagerService: incoming location: Location</t>
+  </si>
+  <si>
+    <t>接收到的位置数据信息,type【 network  gps fuse 】</t>
+  </si>
+  <si>
+    <t>Location mode: true</t>
+  </si>
+  <si>
+    <t>用户的GPS 开关打开的</t>
+  </si>
+  <si>
+    <t>Location mode: false</t>
+  </si>
+  <si>
+    <t>用户的GPS 关闭打开的</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: gnssNameCb:</t>
+  </si>
+  <si>
+    <t>GPS 的 固件信息</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: SIM MCC/MNC is available:</t>
+  </si>
+  <si>
+    <t>插入有效的 sim卡 读取到了 mcc/mnc</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: setRequest ProviderRequest[ON</t>
+  </si>
+  <si>
+    <t>发送位置请求</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: startNavigating</t>
+  </si>
+  <si>
+    <t>开始处理位置导航 获取位置信息</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: reportStatus status:</t>
+  </si>
+  <si>
+    <t>GPS导航状态 [ 1=会话开始  2=会话结束  3=GPS定位引擎打开  4=GPS定位引擎关闭 ]</t>
+  </si>
+  <si>
+    <t>LocationManagerService: Sending Location to</t>
+  </si>
+  <si>
+    <t>给对应的 应用 发送 Location 数据</t>
+  </si>
+  <si>
+    <t>LocationManagerService: Started, Location UpdateRecord for</t>
+  </si>
+  <si>
+    <t>应用开始位置请求</t>
+  </si>
+  <si>
+    <t>LocationManagerService: Stopped, Location UpdateRecord for</t>
+  </si>
+  <si>
+    <t>应用 停止了 位置请求</t>
+  </si>
+  <si>
+    <t>E TestRunner: failed:</t>
+  </si>
+  <si>
+    <t>CTS测试失败</t>
+  </si>
+  <si>
+    <t>GnssTtffTests: (Test: FAIL)</t>
+  </si>
+  <si>
+    <t>TTFF测试失败</t>
+  </si>
+  <si>
+    <t>LocSvc_</t>
+  </si>
+  <si>
+    <t>定位信息 xtra等</t>
+  </si>
+  <si>
+    <t>CtsTestRunListener: Now executing :</t>
+  </si>
+  <si>
+    <t>CTS项开始测试</t>
+  </si>
+  <si>
+    <t>GNSS HAL Requesting location updates from</t>
+  </si>
+  <si>
+    <t>请求位置更新</t>
+  </si>
+  <si>
+    <t>provider doesn't exist:</t>
+  </si>
+  <si>
+    <t>位置provider提供 不存在</t>
+  </si>
+  <si>
+    <t>Unable to request location</t>
+  </si>
+  <si>
+    <t>无法请求位置</t>
+  </si>
+  <si>
+    <t>injectXtraData success</t>
+  </si>
+  <si>
+    <t>注入xtra数据成功</t>
   </si>
   <si>
     <t>LOG实例</t>
@@ -884,6 +1104,24 @@
     <t>手机认证超时 不能连接网络！</t>
   </si>
   <si>
+    <t>LocationManagerService: Sending Location to com.google.android.apps.maps, Provider: gps, Lat: -22.82576322, Long: -47.07181234, Bearing: 0.0, Accuracy: 73.67326, Lprovider: gps, fine: yes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">给对应的 应用 发送 Location 数据 </t>
+  </si>
+  <si>
+    <t>LocationManagerService: Started, Location UpdateRecord for com.schibsted.bomnegocio.androidApp, Provider: network, mInterval: 10000, mFastestInterval: 10000, mSmallestDisplacement: 1.0, mNumUpdates: 2147483647, Receiver: Reciever[f43dead listener monitoring location: false]</t>
+  </si>
+  <si>
+    <t>ActivityTaskManager: START u0 {flg=0x10000000 cmp=com.baidu.map.location/.ConfirmAlertActivity1 (has extras)} from uid 10144</t>
+  </si>
+  <si>
+    <t>ActivityTaskManager: Background activity start [callingPackage: com.baidu.map.location; callingUid: 10144; isCallingUidForeground: false; callingUidHasAnyVisibleWindow: false; callingUidProcState: TRANSIENT_BACKGROUND; isCallingUidPersistentSystemProcess: false; realCallingUid: 10144; isRealCallingUidForeground: false; realCallingUidHasAnyVisibleWindow: false; realCallingUidProcState: TRANSIENT_BACKGROUND; isRealCallingUidPersistentSystemProcess: false; originatingPendingIntent: null; isBgStartWhitelisted: false; intent: Intent { flg=0x10000000 cmp=com.baidu.map.location/.ConfirmAlertActivity1 (has extras) }; callerApp: ProcessRecord{701f52f 7827:com.baidu.map.location/u0a144}]</t>
+  </si>
+  <si>
+    <t>ActivityTaskManager: Abort background activity starts from 10144</t>
+  </si>
+  <si>
     <t>[scheduler_threa][0x156797e41ce][07:50:11.351480]wlan: [13162:D:PE] lim_send_extended_chan_switch_action_frame: 3752: Send Ext channel Switch to :44:78:3e:43:89:66 with swcount 10, swmode 1 , newchannel 169 newops 125</t>
   </si>
   <si>
@@ -1113,6 +1351,85 @@
   </si>
   <si>
     <t>E android.hardware.wifi@1.0-service: Wifi HAL start failed</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: SV count: 12 Used In Fix: 0</t>
+  </si>
+  <si>
+    <t>// libgnss.so上报 , GnssLocationProvider.java 中</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: PRN  17, 19,  2,  5,  6, 12, 13, 15, 24, 25, 29, 15,</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: SNR  27, 30,  0,  0,  0,  0,  0,  0,  0,  0,  0,  0,</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: ELE   3, 22, 63,  4, 42, 40, 10, 17, 68,  9, 13, 40,</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: AZM 133,142, 43, 19,119,205,357,326,240,237,298, 73,</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: FRQ 1575420032,1575420032,1575420032,1575420032,1575420032,1575420032,1575420032,1575420032,1575420032,1575420032,1575420032,1602000000,</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: FLG  A F, A F, A F, A F, A F, A F, A F, A F, A F, A F, A F, A F,</t>
+  </si>
+  <si>
+    <t>GPS 获取卫星数据引擎 打开</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: TTFF: 18367</t>
+  </si>
+  <si>
+    <t>LocationManagerService: incoming location: Location[network -22,814542,-47,059241 hAcc=18 et=+30m41s50ms alt=653.7999877929688 vAcc=2 sAcc=??? bAcc=??? {Bundle[{networkLocationType=wifi, noGPSLocation=Location[network -22,814542,-47,059241 hAcc=18 et=+30m41s50ms alt=653.7999877929688 vAcc=2 sAcc=??? bAcc=??? {Bundle[{networkLocationType=wifi}]}]}]}]</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: gnssNameCb: name=qcom;MPSS.AT.4.3.1-00319-NICOBAR_GEN_PACK-2;</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: SIM MCC/MNC is available: 72403</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: setRequest ProviderRequest[ON interval=0]</t>
+  </si>
+  <si>
+    <t>LocationManagerService: Stopped, Location UpdateRecord for com.btg.pactual.digital.mobile, Provider: gps, mInterval: 10000, mFastestInterval: 10000, mSmallestDisplacement: 1.0, mNumUpdates: 2147483647, Receiver: Reciever[c04a469 listener UpdateRecord[gps com.btg.pactual.digital.mobile(10216 background) Request[ACCURACY_FINE gps requested=+10s0ms fastest=+10s0ms] null] UpdateRecord[network com.btg.pactual.digital.mobile(10216 background) Request[POWER_LOW network requested=+10s0ms fastest=+10s0ms] null] monitoring location: false]</t>
+  </si>
+  <si>
+    <t>E TestRunner: failed: testLowPowerModeGnssLocation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-20 18:03:46.698 12317 12338 I GnssTtffTests: (Test: FAIL) Test case: checkTtffWarmWithWifiOn, TTFF should be less than 18000 . In current test, TTFF value is: 90828
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E LocSvc_APIClientBase: onResponseCb:917] ERROR: 5 ID: 48
+E LocSvc_ApiV02: reportSystemInfo:4418] system info type: 1, leap second valid: 1 current gps time:valid:4, week: 38336, msec: -1012891224,current leap second:valid 24, seconds 0, next gps time: valid 0, week: 31728, msec: -905996048,next leap second: valid 240, seconds 152
+W LocSvc_xtra2: onRequestNtpTime:255] NTP download req state:0 reqsource:2 cursource:65535 isGpsEnabled:1
+W LocSvc_IzatApiV02: operator():1379] time: 1611136935525; elapsedTimeMs: 836824; reference: 37601; uncertainty: 152; timeSrc: 2
+E LocSvc_ApiV02: reportLocEvent:3899] Loc event report: 0 KlobucharIonoMode_valid:0: leapSec_valid:1: tauC_valid:0 featureStatusReport_valid: 0 featureStatusReport: 0
+W LocSvc_xtra2: updateXtraServers:400] XTRA server: https://path2.xtracloud.net/xtra3grcej.bin https://path3.xtracloud.net/xtra3grcej.bin https://path1.xtracloud.net/xtra3grcej.bin
+E LocSvc_ApiV02: reportSystemInfo:4418] system info type: 1, leap second valid: 1 current gps time:valid:1, week: 2141, msec: 295444406,current leap second:valid 1, seconds 18, next gps time: valid 0, week: 1, msec: 20,next leap second: valid 0, seconds 50
+</t>
+  </si>
+  <si>
+    <t>定位相关LOG</t>
+  </si>
+  <si>
+    <t>CtsTestRunListener: Now executing : android.location.cts.gnss.GnssTtffTests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-20 18:03:05.906  2050  2143 I GnssLocationProvider: GNSS HAL Requesting location updates from network provider for 10000 millis.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">请求位置更新 从xx--provider 在yy--时间内 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">01-20 18:03:05.908  2050  2143 W GnssLocationProvider: Unable to request location.
+</t>
   </si>
 </sst>
 </file>
@@ -1122,8 +1439,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1135,6 +1452,60 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1142,14 +1513,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1164,30 +1566,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1209,72 +1588,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1293,7 +1610,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,67 +1688,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1383,7 +1712,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,25 +1742,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,37 +1772,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1467,13 +1784,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1488,6 +1805,41 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -1498,6 +1850,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1525,65 +1901,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1592,172 +1909,163 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2107,12 +2415,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -2122,98 +2430,94 @@
     <col min="3" max="3" width="11.5454545454545" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.4545454545455" style="4" customWidth="1"/>
     <col min="5" max="5" width="13.0909090909091" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.2727272727273" customWidth="1"/>
+    <col min="6" max="6" width="19.2727272727273" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:6">
-      <c r="A2" s="7" t="s">
+    <row r="2" ht="30" customHeight="1" spans="1:5">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" ht="33" customHeight="1" spans="1:6">
-      <c r="A3" s="7" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="1:5">
+      <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" customFormat="1" ht="42" customHeight="1" spans="1:2">
-      <c r="A4" s="7" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" customFormat="1" ht="42" customHeight="1" spans="1:6">
+      <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="7" t="s">
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" ht="84" spans="1:6">
-      <c r="A6" s="7" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="56" spans="1:5">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" ht="70" spans="1:6">
-      <c r="A7" s="7" t="s">
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="42" spans="1:5">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="7"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
@@ -2243,7 +2547,7 @@
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2299,19 +2603,46 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="20" ht="28" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" ht="70" spans="1:6">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2343,984 +2674,970 @@
   <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D119" sqref="D117:D119"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="71" style="2" customWidth="1"/>
-    <col min="2" max="2" width="40.8181818181818" style="2" customWidth="1"/>
-    <col min="3" max="3" width="11.5454545454545" style="6" customWidth="1"/>
-    <col min="4" max="4" width="19.4545454545455" style="6" customWidth="1"/>
-    <col min="5" max="5" width="13.0909090909091" style="6" customWidth="1"/>
-    <col min="6" max="6" width="42.3636363636364" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="71" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.8181818181818" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5454545454545" style="3" customWidth="1"/>
+    <col min="4" max="4" width="19.4545454545455" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.0909090909091" style="3" customWidth="1"/>
+    <col min="6" max="6" width="42.3636363636364" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28" spans="1:6">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6" t="s">
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="7"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6" t="s">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" ht="28" spans="1:6">
-      <c r="A5" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="B5" s="7" t="s">
+    </row>
+    <row r="5" ht="28" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" ht="42" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" ht="28" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" ht="28" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" ht="42" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" ht="42" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" ht="56" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" ht="28" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" ht="42" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="14" ht="28" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" ht="42" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" ht="28" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" ht="28" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" ht="42" spans="1:6">
+      <c r="A21" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" ht="42" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" ht="28" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" ht="28" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" ht="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" ht="28" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" ht="28" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" ht="28" spans="1:2">
+      <c r="A34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="35" ht="28" spans="1:2">
+      <c r="A35" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" ht="28" spans="1:2">
+      <c r="A36" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" ht="28" spans="1:2">
+      <c r="A37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" ht="28" spans="1:2">
+      <c r="A38" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="39" ht="56" spans="1:2">
+      <c r="A39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" ht="42" spans="1:6">
+      <c r="A40" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="41" ht="42" spans="1:2">
+      <c r="A41" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="47" ht="28" spans="1:2">
+      <c r="A47" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" ht="28" spans="1:2">
+      <c r="A49" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" ht="28" spans="1:2">
+      <c r="A55" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="56" ht="28" spans="1:2">
+      <c r="A56" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="57" ht="28" spans="1:2">
+      <c r="A57" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="58" ht="28" spans="1:2">
+      <c r="A58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="59" ht="28" spans="1:2">
+      <c r="A59" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="60" ht="42" spans="1:2">
+      <c r="A60" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" ht="28" spans="1:2">
+      <c r="A61" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="62" ht="28" spans="1:2">
+      <c r="A62" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="63" ht="56" spans="1:5">
+      <c r="A63" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="84" ht="28" spans="1:2">
+      <c r="A84" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" ht="42" spans="1:2">
+      <c r="A86" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" ht="28" spans="1:2">
+      <c r="A90" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" ht="28" spans="1:2">
+      <c r="A91" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="98" ht="28" spans="1:6">
+      <c r="A98" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="101" ht="28" spans="1:2">
+      <c r="A101" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="102" ht="28" spans="1:2">
+      <c r="A102" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="103" ht="28" spans="1:6">
+      <c r="A103" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" ht="42" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" ht="28" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" ht="28" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="9" ht="42" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10" ht="42" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="11" ht="56" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="12" ht="28" spans="1:6">
-      <c r="A12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" ht="42" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" ht="28" spans="1:6">
-      <c r="A14" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" ht="70" spans="1:6">
-      <c r="A18" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" ht="28" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" ht="28" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" ht="70" spans="1:6">
-      <c r="A21" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="22" ht="70" spans="1:6">
-      <c r="A22" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="25" ht="28" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="27" ht="28" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="28" ht="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" ht="28" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" ht="28" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" ht="28" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="35" ht="28" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="36" ht="28" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="37" ht="28" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" ht="28" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="39" ht="56" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" ht="70" spans="1:6">
-      <c r="A40" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" ht="42" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" ht="28" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="49" ht="28" spans="1:2">
-      <c r="A49" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E54" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="55" ht="28" spans="1:2">
-      <c r="A55" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="56" ht="28" spans="1:2">
-      <c r="A56" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="57" ht="28" spans="1:2">
-      <c r="A57" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="58" ht="28" spans="1:2">
-      <c r="A58" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="59" ht="28" spans="1:2">
-      <c r="A59" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="60" ht="42" spans="1:2">
-      <c r="A60" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="61" ht="28" spans="1:2">
-      <c r="A61" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="62" ht="28" spans="1:2">
-      <c r="A62" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="63" ht="56" spans="1:5">
-      <c r="A63" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="E63" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
-      <c r="A64" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
-      <c r="A65" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
-      <c r="A66" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
-      <c r="A67" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
-      <c r="A68" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
-      <c r="A69" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
-      <c r="A70" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="E71" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
-      <c r="A72" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
-      <c r="A73" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
-      <c r="A74" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
-      <c r="A75" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
-      <c r="A76" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
-      <c r="A77" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
-      <c r="A78" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
-      <c r="A79" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
-      <c r="A80" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
-      <c r="A81" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
-      <c r="A82" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
-      <c r="A83" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="84" ht="28" spans="1:2">
-      <c r="A84" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
-      <c r="A85" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="86" ht="42" spans="1:2">
-      <c r="A86" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
-      <c r="A87" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
-      <c r="A88" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
-      <c r="A89" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="90" ht="28" spans="1:2">
-      <c r="A90" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="91" ht="28" spans="1:2">
-      <c r="A91" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
-      <c r="A92" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
-      <c r="A93" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="94" ht="28" spans="1:2">
-      <c r="A94" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="95" ht="28" spans="1:2">
-      <c r="A95" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
-      <c r="A96" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
-      <c r="A97" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="98" ht="70" spans="1:6">
-      <c r="A98" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
-      <c r="A99" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="100" ht="28" spans="1:2">
-      <c r="A100" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="101" ht="28" spans="1:2">
-      <c r="A101" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="102" ht="28" spans="1:2">
-      <c r="A102" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="103" ht="28" spans="1:6">
-      <c r="A103" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F103" s="2" t="s">
-        <v>241</v>
+      <c r="B103" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="104" ht="28" spans="1:6">
-      <c r="A104" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="F104" s="2" t="s">
-        <v>241</v>
+      <c r="A104" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="105" spans="1:2">
-      <c r="A105" s="2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>245</v>
+      <c r="A105" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="106" spans="1:2">
-      <c r="A106" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>247</v>
+      <c r="A106" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="107" spans="1:2">
-      <c r="A107" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>249</v>
+      <c r="A107" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="108" spans="1:2">
-      <c r="A108" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>251</v>
+      <c r="A108" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>253</v>
+      <c r="A109" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="110" ht="42" spans="1:2">
-      <c r="A110" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>255</v>
+      <c r="A110" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="111" ht="42" spans="1:2">
-      <c r="A111" s="2" t="s">
-        <v>256</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>257</v>
+      <c r="A111" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="112" ht="42" spans="1:2">
-      <c r="A112" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>259</v>
+      <c r="A112" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -3333,44 +3650,310 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="89.2181818181818" customWidth="1"/>
-    <col min="2" max="2" width="37" customWidth="1"/>
+    <col min="2" max="2" width="51.4545454545455" style="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
     <col min="4" max="4" width="16.3636363636364" style="4" customWidth="1"/>
     <col min="5" max="5" width="19.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+    <row r="1" ht="49" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>261</v>
-      </c>
-      <c r="B2" t="s">
-        <v>262</v>
+        <v>268</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>270</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="5" ht="126" spans="1:2">
+      <c r="A5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="6" ht="154" spans="1:2">
+      <c r="A6" t="s">
+        <v>276</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" ht="56" spans="1:2">
+      <c r="A7" t="s">
+        <v>278</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="8" ht="56" spans="1:2">
+      <c r="A8" t="s">
+        <v>280</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="9" ht="56" spans="1:2">
+      <c r="A9" t="s">
+        <v>282</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" ht="56" spans="1:2">
+      <c r="A10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="11" ht="70" spans="1:2">
+      <c r="A11" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>290</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>292</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="15" ht="28" spans="1:2">
+      <c r="A15" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="16" ht="84" spans="1:2">
+      <c r="A16" t="s">
+        <v>296</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>298</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>302</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>304</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>306</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>308</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" ht="28" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>314</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>318</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>320</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>322</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>326</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>328</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>330</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>332</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>334</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3399,19 +3982,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3441,19 +4024,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D1" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3467,56 +4050,56 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="75.9090909090909" style="2" customWidth="1"/>
-    <col min="2" max="2" width="31.1818181818182" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.0909090909091" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.1818181818182" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.9090909090909" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="75.9090909090909" style="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1818181818182" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.0909090909091" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1818181818182" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>264</v>
+      <c r="B2" s="1" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="3" ht="84" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="4" ht="56" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B5" t="s">
@@ -3524,7 +4107,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B6" t="s">
@@ -3532,83 +4115,123 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>268</v>
+      <c r="A8" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="9" ht="154" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>270</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="11" ht="42" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>272</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>274</v>
+      <c r="A13" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>277</v>
+      <c r="A16" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="17" ht="42" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="18" ht="56" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="19" ht="42" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" ht="154" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -3624,627 +4247,627 @@
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="97.1" style="2" customWidth="1"/>
-    <col min="2" max="2" width="34.0727272727273" style="2" customWidth="1"/>
-    <col min="3" max="3" width="24.0909090909091" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.1818181818182" style="2" customWidth="1"/>
-    <col min="5" max="5" width="13.9090909090909" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="97.1" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.0727272727273" style="1" customWidth="1"/>
+    <col min="3" max="3" width="24.0909090909091" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.1818181818182" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.9090909090909" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
-      <c r="A1" s="3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="42" spans="1:2">
-      <c r="A2" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>279</v>
+      <c r="A2" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>358</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:2">
-      <c r="A3" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>281</v>
+      <c r="A3" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="4" ht="28" spans="1:2">
-      <c r="A4" s="2" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="5" ht="28" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="6" ht="70" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>56</v>
+      <c r="A4" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" ht="56" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>287</v>
+      <c r="A7" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:2">
-      <c r="A8" s="2" t="s">
-        <v>288</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>60</v>
+      <c r="A8" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>287</v>
+      <c r="A9" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:2">
-      <c r="A10" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>65</v>
+      <c r="A10" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>291</v>
+      <c r="A11" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>293</v>
+      <c r="A12" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="13" ht="28" spans="1:2">
-      <c r="A13" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>71</v>
+      <c r="A13" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="14" ht="28" spans="1:2">
-      <c r="A14" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>73</v>
+      <c r="A14" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="15" ht="28" spans="1:2">
-      <c r="A15" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>78</v>
+      <c r="A15" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="16" ht="28" spans="1:2">
-      <c r="A16" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>76</v>
+      <c r="A16" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="2" t="s">
-        <v>298</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>299</v>
+      <c r="A17" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:2">
-      <c r="A18" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>301</v>
+      <c r="A18" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>85</v>
+      <c r="A19" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:2">
-      <c r="A20" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>87</v>
+      <c r="A20" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:2">
-      <c r="A21" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>89</v>
+      <c r="A21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>91</v>
+      <c r="A22" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="23" ht="28" spans="1:2">
-      <c r="A23" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>95</v>
+      <c r="A23" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>93</v>
+      <c r="A24" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:2">
-      <c r="A25" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>97</v>
+      <c r="A25" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>99</v>
+      <c r="A26" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:2">
-      <c r="A27" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>101</v>
+      <c r="A27" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>103</v>
+      <c r="A28" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="29" ht="28" spans="1:2">
-      <c r="A29" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>105</v>
+      <c r="A29" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:2">
-      <c r="A30" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="31" ht="42" spans="1:2">
-      <c r="A31" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>109</v>
+      <c r="A30" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="31" ht="28" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="32" ht="28" spans="1:2">
-      <c r="A32" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>111</v>
+      <c r="A32" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="2" t="s">
-        <v>315</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>113</v>
+      <c r="A33" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="34" ht="56" spans="1:2">
-      <c r="A34" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>115</v>
+      <c r="A34" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="35" ht="42" spans="1:2">
-      <c r="A35" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>317</v>
+      <c r="A35" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="36" ht="56" spans="1:2">
-      <c r="A36" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>318</v>
+      <c r="A36" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="2" t="s">
-        <v>319</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>122</v>
+      <c r="A37" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>124</v>
+      <c r="A38" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="39" ht="28" spans="1:2">
-      <c r="A39" s="2" t="s">
-        <v>321</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>126</v>
+      <c r="A39" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="40" ht="28" spans="1:2">
-      <c r="A40" s="2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>128</v>
+      <c r="A40" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>130</v>
+      <c r="A41" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="42" ht="28" spans="1:2">
-      <c r="A42" s="2" t="s">
-        <v>324</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>132</v>
+      <c r="A42" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="2" t="s">
-        <v>325</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>134</v>
+      <c r="A43" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="44" ht="28" spans="1:2">
-      <c r="A44" s="2" t="s">
-        <v>326</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>136</v>
+      <c r="A44" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>138</v>
+      <c r="A45" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="46" ht="28" spans="1:2">
-      <c r="A46" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>140</v>
+      <c r="A46" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>142</v>
+      <c r="A47" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>144</v>
+      <c r="A48" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="49" ht="42" spans="1:2">
-      <c r="A49" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>148</v>
+      <c r="A49" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="50" ht="42" spans="1:2">
-      <c r="A50" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>150</v>
+      <c r="A50" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" s="2" t="s">
-        <v>328</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>181</v>
+      <c r="A51" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="52" ht="28" spans="1:2">
-      <c r="A52" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>183</v>
+      <c r="A52" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="53" ht="28" spans="1:2">
-      <c r="A53" s="2" t="s">
-        <v>330</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>185</v>
+      <c r="A53" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="54" ht="28" spans="1:2">
-      <c r="A54" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>187</v>
+      <c r="A54" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="55" ht="28" spans="1:2">
-      <c r="A55" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>189</v>
+      <c r="A55" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="56" ht="28" spans="1:2">
-      <c r="A56" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>191</v>
+      <c r="A56" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>193</v>
+      <c r="A57" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="58" ht="28" spans="1:2">
-      <c r="A58" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>195</v>
+      <c r="A58" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="59" ht="28" spans="1:2">
-      <c r="A59" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>197</v>
+      <c r="A59" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="60" ht="28" spans="1:2">
-      <c r="A60" s="2" t="s">
-        <v>337</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>199</v>
+      <c r="A60" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="61" spans="1:2">
-      <c r="A61" s="2" t="s">
-        <v>338</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>197</v>
+      <c r="A61" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:2">
-      <c r="A62" s="2" t="s">
-        <v>339</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>199</v>
+      <c r="A62" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="63" ht="28" spans="1:2">
-      <c r="A63" s="2" t="s">
-        <v>340</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>203</v>
+      <c r="A63" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>210</v>
       </c>
     </row>
     <row r="64" ht="42" spans="1:2">
-      <c r="A64" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>205</v>
+      <c r="A64" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="65" ht="56" spans="1:2">
-      <c r="A65" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>207</v>
+      <c r="A65" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="66" ht="42" spans="1:2">
-      <c r="A66" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>209</v>
+      <c r="A66" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="67" ht="28" spans="1:2">
-      <c r="A67" s="2" t="s">
-        <v>344</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>211</v>
+      <c r="A67" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="68" spans="1:2">
-      <c r="A68" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>213</v>
+      <c r="A68" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="69" ht="56" spans="1:2">
-      <c r="A69" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>215</v>
+      <c r="A69" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="70" ht="28" spans="1:2">
-      <c r="A70" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>217</v>
+      <c r="A70" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:2">
-      <c r="A71" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>219</v>
+      <c r="A71" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="72" spans="1:2">
-      <c r="A72" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>221</v>
+      <c r="A72" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="73" ht="28" spans="1:2">
-      <c r="A73" s="2" t="s">
-        <v>350</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>223</v>
+      <c r="A73" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="74" ht="56" spans="1:2">
-      <c r="A74" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>240</v>
+      <c r="A74" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>247</v>
+      <c r="A75" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="76" spans="1:2">
-      <c r="A76" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>249</v>
+      <c r="A76" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -4257,14 +4880,245 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="119.818181818182" style="1" customWidth="1"/>
+    <col min="2" max="2" width="70.1818181818182" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="48" customHeight="1" spans="1:2">
+      <c r="A1" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="5" ht="112" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="6" ht="42" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="7" ht="42" spans="1:2">
+      <c r="A7" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="8" ht="42" spans="1:2">
+      <c r="A8" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" ht="42" spans="1:2">
+      <c r="A9" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="10" ht="42" spans="1:2">
+      <c r="A10" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="15" ht="56" spans="1:2">
+      <c r="A15" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="16" ht="56" spans="1:2">
+      <c r="A16" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="21" ht="28" spans="1:2">
+      <c r="A21" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="22" ht="70" spans="1:2">
+      <c r="A22" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="24" ht="42" spans="1:2">
+      <c r="A24" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="25" ht="210" spans="1:2">
+      <c r="A25" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="27" ht="42" spans="1:2">
+      <c r="A27" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="28" ht="28" spans="1:2">
+      <c r="A28" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/tool/notepad_zbinfile/zbin/J9_Log.xlsx
+++ b/tool/notepad_zbinfile/zbin/J9_Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17770" windowHeight="7740" tabRatio="842" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="842" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="COMMON" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="626" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="460">
   <si>
     <t>关键词</t>
   </si>
@@ -842,6 +842,12 @@
     <t>[verbose]热点打开成功 10(正在关闭) 11(关闭成功) 12(正在打开) 13(打开成功) 14(打开失败)</t>
   </si>
   <si>
+    <t>startTethering caller</t>
+  </si>
+  <si>
+    <t>应用开启热点</t>
+  </si>
+  <si>
     <t>是否过滤重复</t>
   </si>
   <si>
@@ -1047,6 +1053,12 @@
   </si>
   <si>
     <t>注入xtra数据成功</t>
+  </si>
+  <si>
+    <t>Used In Fix:</t>
+  </si>
+  <si>
+    <t>可用搜星数量</t>
   </si>
   <si>
     <t>LOG实例</t>
@@ -1437,8 +1449,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1452,7 +1464,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1465,9 +1499,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1480,19 +1513,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1506,74 +1531,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1588,10 +1545,65 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1610,25 +1622,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1640,85 +1646,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1736,7 +1670,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1748,19 +1712,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1772,7 +1730,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1790,7 +1760,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,41 +1813,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1854,11 +1831,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1881,23 +1897,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1909,10 +1921,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1921,137 +1933,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2066,6 +2078,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2418,7 +2433,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
@@ -2671,12 +2686,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F112"/>
+  <dimension ref="A1:F113"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -3640,6 +3655,14 @@
         <v>266</v>
       </c>
     </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3650,12 +3673,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3678,7 +3701,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -3686,274 +3709,282 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" ht="126" spans="1:2">
       <c r="A5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" ht="154" spans="1:2">
       <c r="A6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:2">
       <c r="A7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:2">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" ht="56" spans="1:2">
       <c r="A9" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="10" ht="56" spans="1:2">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" ht="70" spans="1:2">
       <c r="A11" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" ht="28" spans="1:2">
       <c r="A15" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="16" ht="84" spans="1:2">
       <c r="A16" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="24" ht="28" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>335</v>
+        <v>337</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3992,7 +4023,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -4034,7 +4065,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -4068,7 +4099,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4079,12 +4110,12 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="3" ht="84" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -4092,7 +4123,7 @@
     </row>
     <row r="4" ht="56" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -4124,15 +4155,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="9" ht="154" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -4140,7 +4171,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
@@ -4148,7 +4179,7 @@
     </row>
     <row r="11" ht="42" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>32</v>
@@ -4156,7 +4187,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
@@ -4164,10 +4195,10 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4180,7 +4211,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -4188,31 +4219,31 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>41</v>
@@ -4220,7 +4251,7 @@
     </row>
     <row r="20" ht="154" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>43</v>
@@ -4228,7 +4259,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>45</v>
@@ -4247,7 +4278,7 @@
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
     </sheetView>
@@ -4264,7 +4295,7 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4272,31 +4303,31 @@
     </row>
     <row r="2" ht="42" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" ht="28" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>61</v>
@@ -4304,7 +4335,7 @@
     </row>
     <row r="6" ht="56" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>63</v>
@@ -4312,15 +4343,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>67</v>
@@ -4328,15 +4359,15 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>72</v>
@@ -4347,20 +4378,20 @@
         <v>73</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="13" ht="28" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>78</v>
@@ -4368,7 +4399,7 @@
     </row>
     <row r="14" ht="28" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>80</v>
@@ -4376,7 +4407,7 @@
     </row>
     <row r="15" ht="28" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>85</v>
@@ -4384,7 +4415,7 @@
     </row>
     <row r="16" ht="28" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>83</v>
@@ -4392,23 +4423,23 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>92</v>
@@ -4416,7 +4447,7 @@
     </row>
     <row r="20" ht="28" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>94</v>
@@ -4440,7 +4471,7 @@
     </row>
     <row r="23" ht="28" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>102</v>
@@ -4448,7 +4479,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>100</v>
@@ -4456,7 +4487,7 @@
     </row>
     <row r="25" ht="28" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>104</v>
@@ -4464,7 +4495,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>106</v>
@@ -4472,7 +4503,7 @@
     </row>
     <row r="27" ht="28" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>108</v>
@@ -4480,7 +4511,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>110</v>
@@ -4488,7 +4519,7 @@
     </row>
     <row r="29" ht="28" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>112</v>
@@ -4496,15 +4527,15 @@
     </row>
     <row r="30" ht="28" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="31" ht="28" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>116</v>
@@ -4512,7 +4543,7 @@
     </row>
     <row r="32" ht="28" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>118</v>
@@ -4520,7 +4551,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>120</v>
@@ -4528,7 +4559,7 @@
     </row>
     <row r="34" ht="56" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>122</v>
@@ -4539,7 +4570,7 @@
         <v>123</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" ht="56" spans="1:2">
@@ -4547,12 +4578,12 @@
         <v>126</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>129</v>
@@ -4560,7 +4591,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>131</v>
@@ -4568,7 +4599,7 @@
     </row>
     <row r="39" ht="28" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>133</v>
@@ -4576,7 +4607,7 @@
     </row>
     <row r="40" ht="28" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>135</v>
@@ -4584,7 +4615,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>137</v>
@@ -4592,7 +4623,7 @@
     </row>
     <row r="42" ht="28" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>139</v>
@@ -4600,7 +4631,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>141</v>
@@ -4608,7 +4639,7 @@
     </row>
     <row r="44" ht="28" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>143</v>
@@ -4616,7 +4647,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>145</v>
@@ -4640,7 +4671,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>151</v>
@@ -4664,7 +4695,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>188</v>
@@ -4672,7 +4703,7 @@
     </row>
     <row r="52" ht="28" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>190</v>
@@ -4680,7 +4711,7 @@
     </row>
     <row r="53" ht="28" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>192</v>
@@ -4688,7 +4719,7 @@
     </row>
     <row r="54" ht="28" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>194</v>
@@ -4696,7 +4727,7 @@
     </row>
     <row r="55" ht="28" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>196</v>
@@ -4704,7 +4735,7 @@
     </row>
     <row r="56" ht="28" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>198</v>
@@ -4712,7 +4743,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>200</v>
@@ -4720,7 +4751,7 @@
     </row>
     <row r="58" ht="28" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>202</v>
@@ -4728,7 +4759,7 @@
     </row>
     <row r="59" ht="28" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>204</v>
@@ -4736,7 +4767,7 @@
     </row>
     <row r="60" ht="28" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>206</v>
@@ -4744,7 +4775,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>204</v>
@@ -4752,7 +4783,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>206</v>
@@ -4760,7 +4791,7 @@
     </row>
     <row r="63" ht="28" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>210</v>
@@ -4768,7 +4799,7 @@
     </row>
     <row r="64" ht="42" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>212</v>
@@ -4776,7 +4807,7 @@
     </row>
     <row r="65" ht="56" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>214</v>
@@ -4784,7 +4815,7 @@
     </row>
     <row r="66" ht="42" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>216</v>
@@ -4792,7 +4823,7 @@
     </row>
     <row r="67" ht="28" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>218</v>
@@ -4800,7 +4831,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>220</v>
@@ -4808,7 +4839,7 @@
     </row>
     <row r="69" ht="56" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>222</v>
@@ -4816,7 +4847,7 @@
     </row>
     <row r="70" ht="28" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>224</v>
@@ -4824,7 +4855,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>226</v>
@@ -4832,7 +4863,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>228</v>
@@ -4840,7 +4871,7 @@
     </row>
     <row r="73" ht="28" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>230</v>
@@ -4848,7 +4879,7 @@
     </row>
     <row r="74" ht="56" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>247</v>
@@ -4856,7 +4887,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>254</v>
@@ -4864,7 +4895,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>256</v>
@@ -4896,7 +4927,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4904,218 +4935,218 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5" ht="112" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" ht="42" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" ht="42" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" ht="42" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="9" ht="42" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="10" ht="42" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="16" ht="56" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" ht="70" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" ht="210" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="28" ht="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/tool/notepad_zbinfile/zbin/J9_Log.xlsx
+++ b/tool/notepad_zbinfile/zbin/J9_Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="842" activeTab="1"/>
+    <workbookView windowWidth="18530" windowHeight="7010" tabRatio="842" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="COMMON" sheetId="13" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="525">
   <si>
     <t>关键词</t>
   </si>
@@ -166,6 +166,30 @@
   </si>
   <si>
     <t>/frameworks/base/services/core/java/com/android/server/wm/ActivityStarter.java#2221</t>
+  </si>
+  <si>
+    <t>MediaProvider: Open with lower FS for /storage/emulated/0/Pictures/Screenshots</t>
+  </si>
+  <si>
+    <t>截屏操作</t>
+  </si>
+  <si>
+    <t>去除【Code路径:   】</t>
+  </si>
+  <si>
+    <t>【Code路径:   】</t>
+  </si>
+  <si>
+    <t>BUG2GO-Util: TYPE_</t>
+  </si>
+  <si>
+    <t>上传Bug2GO</t>
+  </si>
+  <si>
+    <t>MMApiWebService</t>
+  </si>
+  <si>
+    <t>不清楚具体</t>
   </si>
   <si>
     <t>SND notifyWifiApStateChange</t>
@@ -743,7 +767,7 @@
     <t>设备 主动发送 断开帧 断开当前网络！</t>
   </si>
   <si>
-    <t>received AUTH failure timeout</t>
+    <t>AUTH failure</t>
   </si>
   <si>
     <t xml:space="preserve"> 手机认证超时 不能连接网络！</t>
@@ -764,13 +788,13 @@
     <t>WIFI 连接成功事件发生</t>
   </si>
   <si>
-    <t>SubSettings: Launching fragment com.android.settings.wifi.WifiSettings</t>
+    <t>com.android.settings.wifi.WifiSettings</t>
   </si>
   <si>
     <t>用户进入WIFI设置界面</t>
   </si>
   <si>
-    <t>SubSettings: Launching fragment com.android.settings.wifi.tether.WifiTetherSettings</t>
+    <t>com.android.settings.wifi.tether.WifiTetherSettings</t>
   </si>
   <si>
     <t>用户进入热点设置界面</t>
@@ -848,6 +872,33 @@
     <t>应用开启热点</t>
   </si>
   <si>
+    <t>STA iface wlan0 was destroyed</t>
+  </si>
+  <si>
+    <t>接口被销毁</t>
+  </si>
+  <si>
+    <t>interfaceLinkStateChanged, iface: wlan0, up: false</t>
+  </si>
+  <si>
+    <t>wlan0接口物理链路层信号无效True if the physical link-layer connection signal is valid.</t>
+  </si>
+  <si>
+    <t>加载驱动失败</t>
+  </si>
+  <si>
+    <t>connection failed with</t>
+  </si>
+  <si>
+    <t>连接失败</t>
+  </si>
+  <si>
+    <t>Association Rejection event</t>
+  </si>
+  <si>
+    <t>拒绝关联事件</t>
+  </si>
+  <si>
     <t>是否过滤重复</t>
   </si>
   <si>
@@ -1059,6 +1110,150 @@
   </si>
   <si>
     <t>可用搜星数量</t>
+  </si>
+  <si>
+    <t>GnssManager: GNSS_</t>
+  </si>
+  <si>
+    <t>GNSS状态</t>
+  </si>
+  <si>
+    <t>Sending Location to com.baidu.map.location.test</t>
+  </si>
+  <si>
+    <t>发送数据给百度网络定位测试app</t>
+  </si>
+  <si>
+    <t>new cell broadcast message</t>
+  </si>
+  <si>
+    <t>发送Cell消息</t>
+  </si>
+  <si>
+    <t>reportLocation: Location</t>
+  </si>
+  <si>
+    <t>报告位置</t>
+  </si>
+  <si>
+    <t>BaiduNetworkLocation onBind receive action</t>
+  </si>
+  <si>
+    <t>百度网络定位服务加载binder成功</t>
+  </si>
+  <si>
+    <t>UpdateRecord for com.android.phone</t>
+  </si>
+  <si>
+    <t>电话进行定位操作 Start_Stop</t>
+  </si>
+  <si>
+    <t>Sending Location to com.android.phone</t>
+  </si>
+  <si>
+    <t>发送位置给电话应用</t>
+  </si>
+  <si>
+    <t>Sending Location to com.waze</t>
+  </si>
+  <si>
+    <t>发送位置给waze</t>
+  </si>
+  <si>
+    <t>Sending Location to com.google.android.apps.maps</t>
+  </si>
+  <si>
+    <t>发送位置给谷歌地图</t>
+  </si>
+  <si>
+    <t>Sending Location to com.baidu.BaiduMap</t>
+  </si>
+  <si>
+    <t>发送位置给百度地图</t>
+  </si>
+  <si>
+    <t>Sending Location to com.autonavi.minimap</t>
+  </si>
+  <si>
+    <t>发送地图给高德地图</t>
+  </si>
+  <si>
+    <t>Sending Location to com.motorola.duogpstest</t>
+  </si>
+  <si>
+    <t>发送地址给duotest</t>
+  </si>
+  <si>
+    <t>AgpsApn :</t>
+  </si>
+  <si>
+    <t>AGPS消息</t>
+  </si>
+  <si>
+    <t>SUPL network connection</t>
+  </si>
+  <si>
+    <t>Supl连接</t>
+  </si>
+  <si>
+    <t>SUPL: got TCP Error</t>
+  </si>
+  <si>
+    <t>SUPL的TCP网络错误</t>
+  </si>
+  <si>
+    <t>ON A2DP STARTED</t>
+  </si>
+  <si>
+    <t>A2DP蓝牙的音频传输协议开始</t>
+  </si>
+  <si>
+    <t>A2dpStateMachine: state:</t>
+  </si>
+  <si>
+    <t>A2DP状态机变化</t>
+  </si>
+  <si>
+    <t>Avrcp_ext: updateCurrentMediaState: mMediaController</t>
+  </si>
+  <si>
+    <t>当前蓝牙音频控制app</t>
+  </si>
+  <si>
+    <t>Avrcp_ext: Play Status for :</t>
+  </si>
+  <si>
+    <t>SNK设备状态</t>
+  </si>
+  <si>
+    <t>MediaFocusControl: requestAudioFocus() from</t>
+  </si>
+  <si>
+    <t>当前语音焦点app</t>
+  </si>
+  <si>
+    <t>BluetoothPhonePolicy: processProfileStateChanged</t>
+  </si>
+  <si>
+    <t>蓝牙协议状态变化</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HeadsetStateMachine: AudioDisconnecting: </t>
+  </si>
+  <si>
+    <t>蓝牙音频连接正在断开</t>
+  </si>
+  <si>
+    <t>HeadsetStateMachine: AudioConnecting</t>
+  </si>
+  <si>
+    <t>蓝牙音频连接正在建立</t>
+  </si>
+  <si>
+    <t>AS.BtHelper: setBtScoActiveDevice:</t>
+  </si>
+  <si>
+    <t>Sco蓝牙同步语音电话连接设备信息</t>
   </si>
   <si>
     <t>LOG实例</t>
@@ -1464,29 +1659,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1500,14 +1680,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1552,14 +1749,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1576,9 +1765,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1586,7 +1774,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1599,9 +1795,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1622,7 +1817,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1634,37 +1967,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,133 +1991,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1827,6 +2022,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1864,6 +2074,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1879,37 +2100,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1921,10 +2116,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1933,16 +2128,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1954,10 +2149,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1969,97 +2164,97 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2430,17 +2625,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="59.1818181818182" customWidth="1"/>
+    <col min="1" max="1" width="91.4545454545455" customWidth="1"/>
     <col min="2" max="2" width="37.7272727272727" customWidth="1"/>
     <col min="3" max="3" width="11.5454545454545" style="4" customWidth="1"/>
     <col min="4" max="4" width="19.4545454545455" style="4" customWidth="1"/>
@@ -2658,6 +2853,38 @@
       </c>
       <c r="F22" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2686,12 +2913,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F113"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A114" sqref="A114"/>
+      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -2727,29 +2954,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -2757,26 +2981,26 @@
     </row>
     <row r="5" ht="28" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" ht="42" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:2">
@@ -2784,262 +3008,262 @@
         <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" ht="42" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" ht="42" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" ht="28" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" ht="28" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>88</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" ht="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" ht="28" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" ht="28" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" ht="28" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35" ht="28" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36" ht="28" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="38" ht="28" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="39" ht="56" spans="1:2">
@@ -3052,125 +3276,125 @@
     </row>
     <row r="40" ht="42" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="41" ht="42" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" ht="28" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="49" ht="28" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>10</v>
@@ -3178,74 +3402,74 @@
     </row>
     <row r="55" ht="28" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="56" ht="28" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="57" ht="28" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" ht="28" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="59" ht="28" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" ht="42" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" ht="28" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="62" ht="28" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" ht="56" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>10</v>
@@ -3253,66 +3477,66 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>10</v>
@@ -3320,347 +3544,387 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="84" ht="28" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" ht="42" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" ht="28" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" ht="28" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="98" ht="28" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="101" ht="28" spans="1:2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" ht="28" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
     </row>
     <row r="103" ht="28" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" ht="28" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="110" ht="42" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="111" ht="42" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="112" ht="42" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>268</v>
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="115" ht="42" spans="1:2">
+      <c r="A115" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -3673,12 +3937,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3701,7 +3965,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -3709,282 +3973,402 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>287</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>271</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" ht="126" spans="1:2">
       <c r="A5" t="s">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>277</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" ht="154" spans="1:2">
       <c r="A6" t="s">
-        <v>278</v>
+        <v>295</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:2">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>297</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
     </row>
     <row r="8" ht="56" spans="1:2">
       <c r="A8" t="s">
-        <v>282</v>
+        <v>299</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" ht="56" spans="1:2">
       <c r="A9" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" ht="56" spans="1:2">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>303</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" ht="70" spans="1:2">
       <c r="A11" t="s">
-        <v>288</v>
+        <v>305</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>291</v>
+        <v>308</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
     </row>
     <row r="15" ht="28" spans="1:2">
       <c r="A15" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" ht="84" spans="1:2">
       <c r="A16" t="s">
-        <v>298</v>
+        <v>315</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>300</v>
+        <v>317</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>302</v>
+        <v>319</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>303</v>
+        <v>320</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>304</v>
+        <v>321</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>308</v>
+        <v>325</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>310</v>
+        <v>327</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="24" ht="28" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>317</v>
+        <v>334</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>318</v>
+        <v>335</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>320</v>
+        <v>337</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>322</v>
+        <v>339</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>324</v>
+        <v>341</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>326</v>
+        <v>343</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>330</v>
+        <v>347</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>331</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>332</v>
+        <v>349</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>336</v>
+        <v>353</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>337</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="5" t="s">
-        <v>338</v>
+        <v>355</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>339</v>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>357</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>359</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>361</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>363</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>365</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>367</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>369</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>371</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>373</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>375</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>377</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>379</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>381</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>383</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>385</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -3997,10 +4381,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -4023,10 +4407,82 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>389</v>
+      </c>
+      <c r="B3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>391</v>
+      </c>
+      <c r="B4" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>393</v>
+      </c>
+      <c r="B5" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>397</v>
+      </c>
+      <c r="B7" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>401</v>
+      </c>
+      <c r="B9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>403</v>
+      </c>
+      <c r="B10" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>
@@ -4065,7 +4521,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>269</v>
+        <v>286</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -4083,8 +4539,8 @@
   <sheetPr/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -4099,7 +4555,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>340</v>
+        <v>405</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4110,12 +4566,12 @@
         <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>341</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3" ht="84" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>342</v>
+        <v>407</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -4123,7 +4579,7 @@
     </row>
     <row r="4" ht="56" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>343</v>
+        <v>408</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>18</v>
@@ -4155,15 +4611,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>344</v>
+        <v>409</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>345</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" ht="154" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>346</v>
+        <v>411</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>26</v>
@@ -4171,7 +4627,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>347</v>
+        <v>412</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
@@ -4179,7 +4635,7 @@
     </row>
     <row r="11" ht="42" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>348</v>
+        <v>413</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>32</v>
@@ -4187,7 +4643,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>349</v>
+        <v>414</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>34</v>
@@ -4195,10 +4651,10 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>350</v>
+        <v>415</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>351</v>
+        <v>416</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4211,7 +4667,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>352</v>
+        <v>417</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>36</v>
@@ -4219,31 +4675,31 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>353</v>
+        <v>418</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>354</v>
+        <v>419</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>355</v>
+        <v>420</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>356</v>
+        <v>421</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>357</v>
+        <v>422</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>319</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>358</v>
+        <v>423</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>41</v>
@@ -4251,7 +4707,7 @@
     </row>
     <row r="20" ht="154" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>359</v>
+        <v>424</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>43</v>
@@ -4259,7 +4715,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>360</v>
+        <v>425</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>45</v>
@@ -4278,9 +4734,9 @@
   <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -4295,7 +4751,7 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>340</v>
+        <v>405</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4303,602 +4759,602 @@
     </row>
     <row r="2" ht="42" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>361</v>
+        <v>426</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>362</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>364</v>
+        <v>429</v>
       </c>
     </row>
     <row r="4" ht="28" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>365</v>
+        <v>430</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>366</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>367</v>
+        <v>432</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" ht="56" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>368</v>
+        <v>433</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>369</v>
+        <v>434</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>370</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>371</v>
+        <v>436</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>372</v>
+        <v>437</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>370</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>376</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13" ht="28" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>377</v>
+        <v>442</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" ht="28" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>378</v>
+        <v>443</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" ht="28" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>379</v>
+        <v>444</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" ht="28" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>380</v>
+        <v>445</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>381</v>
+        <v>446</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>382</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>383</v>
+        <v>448</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>384</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>386</v>
+        <v>451</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" ht="28" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>387</v>
+        <v>452</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>388</v>
+        <v>453</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>389</v>
+        <v>454</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>390</v>
+        <v>455</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>391</v>
+        <v>456</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>392</v>
+        <v>457</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" ht="28" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>393</v>
+        <v>458</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>112</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>394</v>
+        <v>459</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>395</v>
+        <v>460</v>
       </c>
     </row>
     <row r="31" ht="28" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>396</v>
+        <v>461</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" ht="28" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>397</v>
+        <v>462</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>398</v>
+        <v>463</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
     </row>
     <row r="34" ht="56" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>399</v>
+        <v>464</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
     </row>
     <row r="35" ht="42" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>400</v>
+        <v>465</v>
       </c>
     </row>
     <row r="36" ht="56" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>401</v>
+        <v>466</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>402</v>
+        <v>467</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>403</v>
+        <v>468</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
     </row>
     <row r="39" ht="28" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>404</v>
+        <v>469</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
     </row>
     <row r="40" ht="28" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>405</v>
+        <v>470</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>406</v>
+        <v>471</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="42" ht="28" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>407</v>
+        <v>472</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>408</v>
+        <v>473</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="44" ht="28" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>409</v>
+        <v>474</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>410</v>
+        <v>475</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="46" ht="28" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>403</v>
+        <v>468</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="49" ht="42" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="50" ht="42" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>411</v>
+        <v>476</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
     </row>
     <row r="52" ht="28" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>412</v>
+        <v>477</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="53" ht="28" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>413</v>
+        <v>478</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="54" ht="28" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>414</v>
+        <v>479</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="55" ht="28" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>415</v>
+        <v>480</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="56" ht="28" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>416</v>
+        <v>481</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>417</v>
+        <v>482</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="58" ht="28" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>418</v>
+        <v>483</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" ht="28" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="60" ht="28" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>420</v>
+        <v>485</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>421</v>
+        <v>486</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>422</v>
+        <v>487</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" ht="28" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>423</v>
+        <v>488</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="64" ht="42" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>424</v>
+        <v>489</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
     </row>
     <row r="65" ht="56" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>425</v>
+        <v>490</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="66" ht="42" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>426</v>
+        <v>491</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
     </row>
     <row r="67" ht="28" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>427</v>
+        <v>492</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>428</v>
+        <v>493</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
     </row>
     <row r="69" ht="56" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>429</v>
+        <v>494</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
     </row>
     <row r="70" ht="28" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>430</v>
+        <v>495</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>431</v>
+        <v>496</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>432</v>
+        <v>497</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" ht="28" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>433</v>
+        <v>498</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
     </row>
     <row r="74" ht="56" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>434</v>
+        <v>499</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>435</v>
+        <v>500</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>436</v>
+        <v>501</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -4927,7 +5383,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>340</v>
+        <v>405</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4935,218 +5391,218 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>272</v>
+        <v>289</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>273</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>274</v>
+        <v>291</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>275</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>437</v>
+        <v>502</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>438</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5" ht="112" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>439</v>
+        <v>504</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>279</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" ht="42" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>440</v>
+        <v>505</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>281</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7" ht="42" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>441</v>
+        <v>506</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" ht="42" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>442</v>
+        <v>507</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>285</v>
+        <v>302</v>
       </c>
     </row>
     <row r="9" ht="42" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>443</v>
+        <v>508</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>287</v>
+        <v>304</v>
       </c>
     </row>
     <row r="10" ht="42" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>444</v>
+        <v>509</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>289</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>290</v>
+        <v>307</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>445</v>
+        <v>510</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>292</v>
+        <v>309</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>293</v>
+        <v>310</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>294</v>
+        <v>311</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>295</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>296</v>
+        <v>313</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>297</v>
+        <v>314</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>446</v>
+        <v>511</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
     </row>
     <row r="16" ht="56" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>447</v>
+        <v>512</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>301</v>
+        <v>318</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>448</v>
+        <v>513</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>449</v>
+        <v>514</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>309</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>311</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>313</v>
+        <v>330</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>314</v>
+        <v>331</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>315</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" ht="70" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>323</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>325</v>
+        <v>342</v>
       </c>
     </row>
     <row r="25" ht="210" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>456</v>
+        <v>521</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>329</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>457</v>
+        <v>522</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>458</v>
+        <v>523</v>
       </c>
     </row>
     <row r="28" ht="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>459</v>
+        <v>524</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>335</v>
+        <v>352</v>
       </c>
     </row>
   </sheetData>

--- a/tool/notepad_zbinfile/zbin/J9_Log.xlsx
+++ b/tool/notepad_zbinfile/zbin/J9_Log.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="548">
   <si>
     <t>关键词</t>
   </si>
@@ -41,6 +41,9 @@
   </si>
   <si>
     <t>代码位置</t>
+  </si>
+  <si>
+    <t>剪切板</t>
   </si>
   <si>
     <t>Shutting down VM</t>
@@ -190,6 +193,18 @@
   </si>
   <si>
     <t>不清楚具体</t>
+  </si>
+  <si>
+    <t>Cause: null pointer dereference</t>
+  </si>
+  <si>
+    <t>【空指针错误】</t>
+  </si>
+  <si>
+    <t>Fatal signal 11</t>
+  </si>
+  <si>
+    <t>无效的内存引用-空指针</t>
   </si>
   <si>
     <t>SND notifyWifiApStateChange</t>
@@ -899,6 +914,34 @@
     <t>拒绝关联事件</t>
   </si>
   <si>
+    <t>Disconnect wifi to force update</t>
+  </si>
+  <si>
+    <t>切换WifiCountryCode后主动断开(只发生一次)</t>
+  </si>
+  <si>
+    <t>https://cs.android.com/android/platform/superproject/+/master:packages/modules/Wifi/service/java/com/android/server/wifi/WifiCountryCode.java;l=50;bpv=1;bpt=0?q=WifiCountryCode&amp;sq=&amp;ss=android%2Fplatform%2Fsuperproject</t>
+  </si>
+  <si>
+    <t>,C1,0.000000</t>
+  </si>
+  <si>
+    <t>$PMTK013,22,ClkType,254,C0,0.000000,C1,-0.000000,k,1*25
+C0 或者 C1 只要有一个是0 那么就是没有硬件校准</t>
+  </si>
+  <si>
+    <t>,C0,-0.00000</t>
+  </si>
+  <si>
+    <t>status: disc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> queued but not sent over air , 没有发送出来，</t>
+  </si>
+  <si>
+    <t>https://sse.am.mot.com/s_source/xref/ms-r-q8450/vendor/qcom/opensource/wlan/qca-wifi-host-cmn/qdf/inc/qdf_types.h?r=5106702b#1520</t>
+  </si>
+  <si>
     <t>是否过滤重复</t>
   </si>
   <si>
@@ -926,6 +969,9 @@
     <t>// /hardware/qcom/sdmxxx/gps/sdmxxx/gnss/ libgnss.so上报 , GnssLocationProvider.java 中  方法 void handleReportSvStatus(SvStatusInfo info) 中的 int SvStatusInfo.mSvCount【SV count:卫星个数 】 || 【 卫星可用个数 】 usedInFixCount  是int[] mSvidWithFlags 数组中 比特位 0x4 第2位 不为0 的个数 (【 int[] 】info.mSvidWithFlags[i] &amp; GnssStatus.GNSS_SV_FLAGS_USED_IN_FIX【0x4 2^2 第2个比特位】) != 0</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>GnssLocationProvider: PRN</t>
   </si>
   <si>
@@ -1022,10 +1068,10 @@
     <t>插入有效的 sim卡 读取到了 mcc/mnc</t>
   </si>
   <si>
-    <t>GnssLocationProvider: setRequest ProviderRequest[ON</t>
-  </si>
-  <si>
-    <t>发送位置请求</t>
+    <t>GnssLocationProvider: setRequest ProviderRequest</t>
+  </si>
+  <si>
+    <t>发送位置请求【@后面是时间间隔,获取到位置 Session就关闭】</t>
   </si>
   <si>
     <t>GnssLocationProvider: startNavigating</t>
@@ -1040,12 +1086,6 @@
     <t>GPS导航状态 [ 1=会话开始  2=会话结束  3=GPS定位引擎打开  4=GPS定位引擎关闭 ]</t>
   </si>
   <si>
-    <t>LocationManagerService: Sending Location to</t>
-  </si>
-  <si>
-    <t>给对应的 应用 发送 Location 数据</t>
-  </si>
-  <si>
     <t>LocationManagerService: Started, Location UpdateRecord for</t>
   </si>
   <si>
@@ -1118,36 +1158,36 @@
     <t>GNSS状态</t>
   </si>
   <si>
+    <t>new cell broadcast message</t>
+  </si>
+  <si>
+    <t>发送Cell消息</t>
+  </si>
+  <si>
+    <t>reportLocation: Location</t>
+  </si>
+  <si>
+    <t>报告位置</t>
+  </si>
+  <si>
+    <t>BaiduNetworkLocation onBind receive action</t>
+  </si>
+  <si>
+    <t>百度网络定位服务加载binder成功</t>
+  </si>
+  <si>
+    <t>UpdateRecord for com.android.phone</t>
+  </si>
+  <si>
+    <t>电话进行定位操作 Start_Stop</t>
+  </si>
+  <si>
     <t>Sending Location to com.baidu.map.location.test</t>
   </si>
   <si>
     <t>发送数据给百度网络定位测试app</t>
   </si>
   <si>
-    <t>new cell broadcast message</t>
-  </si>
-  <si>
-    <t>发送Cell消息</t>
-  </si>
-  <si>
-    <t>reportLocation: Location</t>
-  </si>
-  <si>
-    <t>报告位置</t>
-  </si>
-  <si>
-    <t>BaiduNetworkLocation onBind receive action</t>
-  </si>
-  <si>
-    <t>百度网络定位服务加载binder成功</t>
-  </si>
-  <si>
-    <t>UpdateRecord for com.android.phone</t>
-  </si>
-  <si>
-    <t>电话进行定位操作 Start_Stop</t>
-  </si>
-  <si>
     <t>Sending Location to com.android.phone</t>
   </si>
   <si>
@@ -1200,6 +1240,33 @@
   </si>
   <si>
     <t>SUPL的TCP网络错误</t>
+  </si>
+  <si>
+    <t>hal2mnl_gps_start</t>
+  </si>
+  <si>
+    <t>GPS启动</t>
+  </si>
+  <si>
+    <t>hal2mnl_gps_stop</t>
+  </si>
+  <si>
+    <t>GPS关闭</t>
+  </si>
+  <si>
+    <t>provider removed registration</t>
+  </si>
+  <si>
+    <t>应用移除监听</t>
+  </si>
+  <si>
+    <t>provider added registration from</t>
+  </si>
+  <si>
+    <t>应用添加监听</t>
+  </si>
+  <si>
+    <t>reportLocation Location</t>
   </si>
   <si>
     <t>ON A2DP STARTED</t>
@@ -1602,6 +1669,9 @@
     <t>GnssLocationProvider: setRequest ProviderRequest[ON interval=0]</t>
   </si>
   <si>
+    <t>发送位置请求</t>
+  </si>
+  <si>
     <t>LocationManagerService: Stopped, Location UpdateRecord for com.btg.pactual.digital.mobile, Provider: gps, mInterval: 10000, mFastestInterval: 10000, mSmallestDisplacement: 1.0, mNumUpdates: 2147483647, Receiver: Reciever[c04a469 listener UpdateRecord[gps com.btg.pactual.digital.mobile(10216 background) Request[ACCURACY_FINE gps requested=+10s0ms fastest=+10s0ms] null] UpdateRecord[network com.btg.pactual.digital.mobile(10216 background) Request[POWER_LOW network requested=+10s0ms fastest=+10s0ms] null] monitoring location: false]</t>
   </si>
   <si>
@@ -1644,10 +1714,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -1658,15 +1728,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1686,33 +1750,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1749,6 +1795,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1765,8 +1819,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1780,23 +1858,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1812,24 +1882,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1853,7 +1905,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1865,91 +1953,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1967,7 +1971,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1979,13 +2007,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1997,7 +2049,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2022,21 +2092,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2074,17 +2129,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2100,11 +2144,37 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2116,10 +2186,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2128,137 +2198,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2274,8 +2344,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2625,15 +2701,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="91.4545454545455" customWidth="1"/>
     <col min="2" max="2" width="37.7272727272727" customWidth="1"/>
@@ -2643,7 +2719,7 @@
     <col min="6" max="6" width="19.2727272727273" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:6">
+    <row r="1" ht="28" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2662,13 +2738,16 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
@@ -2676,32 +2755,32 @@
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" customFormat="1" ht="42" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
@@ -2709,10 +2788,10 @@
     </row>
     <row r="6" ht="56" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -2720,10 +2799,10 @@
     </row>
     <row r="7" ht="42" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
@@ -2731,160 +2810,176 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" t="s">
         <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" ht="70" spans="1:6">
       <c r="A22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -2913,15 +3008,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:G122"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A94" sqref="A94"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="71" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.8181818181818" style="1" customWidth="1"/>
@@ -2932,7 +3027,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:6">
+    <row r="1" ht="28" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2951,983 +3046,1028 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" ht="28" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" ht="42" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" ht="42" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" ht="42" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" ht="28" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="19" ht="28" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" ht="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="29" ht="28" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="31" ht="28" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="34" ht="28" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" ht="28" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="36" ht="28" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" ht="28" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="39" ht="56" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="40" ht="42" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
     </row>
     <row r="41" ht="42" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" ht="28" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="49" ht="28" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="28" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" ht="28" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="57" ht="28" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" ht="28" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" ht="28" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" ht="42" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" ht="28" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" ht="28" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" ht="56" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" ht="28" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="86" ht="42" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="90" ht="28" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="91" ht="28" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
     </row>
     <row r="98" ht="28" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="102" ht="28" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="103" ht="28" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="104" ht="28" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="110" ht="42" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="111" ht="42" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="112" ht="42" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="115" ht="42" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>285</v>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="119" ht="84" spans="1:6">
+      <c r="A119" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="F119" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="120" ht="56" spans="1:2">
+      <c r="A120" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="121" ht="56" spans="1:2">
+      <c r="A121" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="122" ht="56" spans="1:6">
+      <c r="A122" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F122" s="7" t="s">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F119" r:id="rId1" display="https://cs.android.com/android/platform/superproject/+/master:packages/modules/Wifi/service/java/com/android/server/wifi/WifiCountryCode.java;l=50;bpv=1;bpt=0?q=WifiCountryCode&amp;sq=&amp;ss=android%2Fplatform%2Fsuperproject"/>
+    <hyperlink ref="F122" r:id="rId2" display="https://sse.am.mot.com/s_source/xref/ms-r-q8450/vendor/qcom/opensource/wlan/qca-wifi-host-cmn/qdf/inc/qdf_types.h?r=5106702b#1520"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -3937,438 +4077,500 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A57" sqref="A57"/>
+      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="89.2181818181818" customWidth="1"/>
     <col min="2" max="2" width="51.4545454545455" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="4"/>
-    <col min="4" max="4" width="16.3636363636364" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.2727272727273" customWidth="1"/>
+    <col min="4" max="4" width="9" style="4"/>
+    <col min="5" max="5" width="16.3636363636364" style="4" customWidth="1"/>
+    <col min="6" max="6" width="19.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="49" customHeight="1" spans="1:5">
+    <row r="1" ht="49" customHeight="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="E1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>288</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="5" ht="126" spans="1:2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="5" ht="126" spans="1:3">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>307</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="6" ht="154" spans="1:2">
+        <v>308</v>
+      </c>
+      <c r="C5" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="6" ht="154" spans="1:3">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>310</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>296</v>
+        <v>311</v>
+      </c>
+      <c r="C6" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:2">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="8" ht="56" spans="1:2">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" ht="56" spans="1:3">
       <c r="A8" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" ht="56" spans="1:2">
+        <v>315</v>
+      </c>
+      <c r="C8" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="9" ht="56" spans="1:3">
       <c r="A9" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="10" ht="56" spans="1:2">
+        <v>317</v>
+      </c>
+      <c r="C9" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="10" ht="56" spans="1:3">
       <c r="A10" t="s">
-        <v>303</v>
+        <v>318</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="11" ht="70" spans="1:2">
+        <v>319</v>
+      </c>
+      <c r="C10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="11" ht="70" spans="1:3">
       <c r="A11" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>306</v>
+        <v>321</v>
+      </c>
+      <c r="C11" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>308</v>
+        <v>323</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" t="s">
+        <v>324</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>326</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C14" t="s">
         <v>309</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>311</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="15" ht="28" spans="1:2">
+    </row>
+    <row r="15" ht="28" spans="1:3">
       <c r="A15" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>314</v>
+        <v>329</v>
+      </c>
+      <c r="C15" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="16" ht="84" spans="1:2">
       <c r="A16" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>317</v>
+        <v>332</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>319</v>
+        <v>334</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>320</v>
+        <v>335</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>321</v>
+        <v>336</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>322</v>
+        <v>337</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>323</v>
+        <v>338</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="22" ht="28" spans="1:2">
       <c r="A22" t="s">
-        <v>327</v>
+        <v>342</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>328</v>
+        <v>343</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="24" ht="28" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>333</v>
+        <v>348</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>334</v>
+        <v>349</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>335</v>
+        <v>350</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>336</v>
+        <v>351</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>338</v>
+        <v>353</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>339</v>
+        <v>354</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>341</v>
+        <v>356</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>342</v>
+        <v>357</v>
+      </c>
+      <c r="C29" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>344</v>
+        <v>359</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>345</v>
+        <v>360</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>346</v>
+        <v>361</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>348</v>
+        <v>363</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>349</v>
+        <v>364</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>350</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>351</v>
+        <v>366</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>352</v>
+        <v>367</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" t="s">
-        <v>353</v>
+      <c r="A35" s="6" t="s">
+        <v>368</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="5" t="s">
-        <v>355</v>
+      <c r="A36" t="s">
+        <v>370</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>356</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>357</v>
+        <v>372</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>358</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>360</v>
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>361</v>
+        <v>376</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>362</v>
+        <v>377</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>363</v>
+        <v>378</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>364</v>
+        <v>379</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>367</v>
+        <v>382</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>368</v>
+        <v>383</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>369</v>
+        <v>384</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>370</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>371</v>
+        <v>386</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>372</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>373</v>
+        <v>388</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>374</v>
+        <v>389</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>375</v>
+        <v>390</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>376</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>378</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>379</v>
+        <v>394</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>380</v>
+        <v>395</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>382</v>
+        <v>397</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>384</v>
+        <v>399</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>385</v>
+        <v>400</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>386</v>
+        <v>401</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>402</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>404</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>406</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>408</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -4381,13 +4583,13 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="89.2181818181818" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
@@ -4396,7 +4598,7 @@
     <col min="5" max="5" width="19.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4407,82 +4609,85 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="B3" t="s">
-        <v>390</v>
+        <v>412</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>413</v>
       </c>
       <c r="B4" t="s">
-        <v>392</v>
+        <v>414</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>393</v>
+        <v>415</v>
       </c>
       <c r="B5" t="s">
-        <v>394</v>
+        <v>416</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>395</v>
+        <v>417</v>
       </c>
       <c r="B6" t="s">
-        <v>396</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>397</v>
+        <v>419</v>
       </c>
       <c r="B7" t="s">
-        <v>398</v>
+        <v>420</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>399</v>
+        <v>421</v>
       </c>
       <c r="B8" t="s">
-        <v>400</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>401</v>
+        <v>423</v>
       </c>
       <c r="B9" t="s">
-        <v>402</v>
+        <v>424</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>403</v>
+        <v>425</v>
       </c>
       <c r="B10" t="s">
-        <v>404</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -4495,13 +4700,13 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="89.2181818181818" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
@@ -4510,7 +4715,7 @@
     <col min="5" max="5" width="19.2727272727273" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4521,10 +4726,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>286</v>
+        <v>300</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -4539,7 +4747,7 @@
   <sheetPr/>
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
@@ -4555,7 +4763,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4563,162 +4771,162 @@
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>406</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" ht="84" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>407</v>
+        <v>429</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" ht="56" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>409</v>
+        <v>431</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>410</v>
+        <v>432</v>
       </c>
     </row>
     <row r="9" ht="154" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>411</v>
+        <v>433</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="11" ht="42" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" ht="154" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -4751,7 +4959,7 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4759,602 +4967,602 @@
     </row>
     <row r="2" ht="42" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4" ht="28" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>430</v>
+        <v>452</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>431</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" ht="56" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>441</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13" ht="28" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>442</v>
+        <v>464</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" ht="28" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>443</v>
+        <v>465</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" ht="28" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>444</v>
+        <v>466</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" ht="28" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>445</v>
+        <v>467</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>446</v>
+        <v>468</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>447</v>
+        <v>469</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>448</v>
+        <v>470</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>449</v>
+        <v>471</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>450</v>
+        <v>472</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>451</v>
+        <v>473</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
     </row>
     <row r="23" ht="28" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>452</v>
+        <v>474</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>453</v>
+        <v>475</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>454</v>
+        <v>476</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>455</v>
+        <v>477</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>456</v>
+        <v>478</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>457</v>
+        <v>479</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
     </row>
     <row r="29" ht="28" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>458</v>
+        <v>480</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>459</v>
+        <v>481</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>460</v>
+        <v>482</v>
       </c>
     </row>
     <row r="31" ht="28" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>461</v>
+        <v>483</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
     </row>
     <row r="32" ht="28" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>462</v>
+        <v>484</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>463</v>
+        <v>485</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" ht="56" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>464</v>
+        <v>486</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
     </row>
     <row r="35" ht="42" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>465</v>
+        <v>487</v>
       </c>
     </row>
     <row r="36" ht="56" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>466</v>
+        <v>488</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>467</v>
+        <v>489</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" ht="28" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>469</v>
+        <v>491</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" ht="28" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>470</v>
+        <v>492</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>471</v>
+        <v>493</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" ht="28" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>472</v>
+        <v>494</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>473</v>
+        <v>495</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" ht="28" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>474</v>
+        <v>496</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>475</v>
+        <v>497</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" ht="28" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>468</v>
+        <v>490</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" ht="42" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" ht="42" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>476</v>
+        <v>498</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="52" ht="28" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>477</v>
+        <v>499</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="53" ht="28" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>478</v>
+        <v>500</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" ht="28" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>479</v>
+        <v>501</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" ht="28" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>480</v>
+        <v>502</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="56" ht="28" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>481</v>
+        <v>503</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>482</v>
+        <v>504</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="58" ht="28" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>483</v>
+        <v>505</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="59" ht="28" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>484</v>
+        <v>506</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" ht="28" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>485</v>
+        <v>507</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>486</v>
+        <v>508</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>487</v>
+        <v>509</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
     </row>
     <row r="63" ht="28" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>488</v>
+        <v>510</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" ht="42" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>489</v>
+        <v>511</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" ht="56" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>490</v>
+        <v>512</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="66" ht="42" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>491</v>
+        <v>513</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="67" ht="28" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>492</v>
+        <v>514</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>493</v>
+        <v>515</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
     <row r="69" ht="56" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>494</v>
+        <v>516</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
     </row>
     <row r="70" ht="28" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>495</v>
+        <v>517</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>496</v>
+        <v>518</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>497</v>
+        <v>519</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="73" ht="28" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>498</v>
+        <v>520</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="74" ht="56" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>499</v>
+        <v>521</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>500</v>
+        <v>522</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>501</v>
+        <v>523</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5383,7 +5591,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>405</v>
+        <v>427</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5391,218 +5599,218 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>292</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>502</v>
+        <v>524</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>503</v>
+        <v>525</v>
       </c>
     </row>
     <row r="5" ht="112" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>504</v>
+        <v>526</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
     </row>
     <row r="6" ht="42" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>505</v>
+        <v>527</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" ht="42" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>506</v>
+        <v>528</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" ht="42" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>507</v>
+        <v>529</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>302</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" ht="42" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>508</v>
+        <v>530</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>304</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" ht="42" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>509</v>
+        <v>531</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>306</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>307</v>
+        <v>322</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>510</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>309</v>
+        <v>324</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>311</v>
+        <v>326</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>312</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>511</v>
+        <v>533</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" ht="56" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>512</v>
+        <v>534</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>318</v>
+        <v>333</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>513</v>
+        <v>535</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>324</v>
+        <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>514</v>
+        <v>536</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>326</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>515</v>
+        <v>537</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>328</v>
+        <v>538</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>329</v>
+        <v>344</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>330</v>
+        <v>345</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>332</v>
+        <v>347</v>
       </c>
     </row>
     <row r="22" ht="70" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>516</v>
+        <v>539</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>338</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>517</v>
+        <v>540</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>340</v>
+        <v>353</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" ht="210" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>346</v>
+        <v>359</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
     </row>
     <row r="28" ht="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>352</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/tool/notepad_zbinfile/zbin/J9_Log.xlsx
+++ b/tool/notepad_zbinfile/zbin/J9_Log.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="731" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="630">
   <si>
     <t>关键词</t>
   </si>
@@ -205,6 +205,41 @@
   </si>
   <si>
     <t>无效的内存引用-空指针</t>
+  </si>
+  <si>
+    <t>WindowManager: SURFACE SHOW</t>
+  </si>
+  <si>
+    <t>当前前台应用</t>
+  </si>
+  <si>
+    <t>ActivityManager: CPU usage from</t>
+  </si>
+  <si>
+    <t>CPU最近使用情况</t>
+  </si>
+  <si>
+    <t>ActivityManager:
+user
+kernel</t>
+  </si>
+  <si>
+    <t>当前应用user kenrel的CPU使用情况</t>
+  </si>
+  <si>
+    <t>onStartCommand - action: motorola.intent.action.BUG2GO.BUGREPORT.START</t>
+  </si>
+  <si>
+    <t>Zygote  : Exit zygote</t>
+  </si>
+  <si>
+    <t>系统启动失败</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zygote failed to </t>
+  </si>
+  <si>
+    <t>系统启动失败原因</t>
   </si>
   <si>
     <t>SND notifyWifiApStateChange</t>
@@ -942,6 +977,45 @@
     <t>https://sse.am.mot.com/s_source/xref/ms-r-q8450/vendor/qcom/opensource/wlan/qca-wifi-host-cmn/qdf/inc/qdf_types.h?r=5106702b#1520</t>
   </si>
   <si>
+    <t xml:space="preserve">initWifiCutback:cannot open: </t>
+  </si>
+  <si>
+    <t>SAR程序打开不了结点</t>
+  </si>
+  <si>
+    <t>Received firmware hang event</t>
+  </si>
+  <si>
+    <t>固件Crash事件 (Pri Firmware Corrupt) hang,会导致断线</t>
+  </si>
+  <si>
+    <t>https://sse.am.mot.com/s_source/xref/ms-r-q8450/vendor/qcom/opensource/wlan/qcacld-3.0/core/hdd/src/wlan_hdd_driver_ops.c?r=a8a418aa&amp;mo=51149&amp;fi=2095</t>
+  </si>
+  <si>
+    <t>prepareForForcedConnection</t>
+  </si>
+  <si>
+    <t>强制连接网络</t>
+  </si>
+  <si>
+    <t>connectToUserSelectNetwork</t>
+  </si>
+  <si>
+    <t>连接到用户选择的网络通过APP界面</t>
+  </si>
+  <si>
+    <t>nl80211: Roam event</t>
+  </si>
+  <si>
+    <t>漫游事件发送</t>
+  </si>
+  <si>
+    <t>wpa_supplicant: Interface initialization failed</t>
+  </si>
+  <si>
+    <t>热点接口初始化失败</t>
+  </si>
+  <si>
     <t>是否过滤重复</t>
   </si>
   <si>
@@ -963,49 +1037,43 @@
     <t>检测到 灭屏 事件</t>
   </si>
   <si>
-    <t>GnssLocationProvider: SV</t>
-  </si>
-  <si>
-    <t>// /hardware/qcom/sdmxxx/gps/sdmxxx/gnss/ libgnss.so上报 , GnssLocationProvider.java 中  方法 void handleReportSvStatus(SvStatusInfo info) 中的 int SvStatusInfo.mSvCount【SV count:卫星个数 】 || 【 卫星可用个数 】 usedInFixCount  是int[] mSvidWithFlags 数组中 比特位 0x4 第2位 不为0 的个数 (【 int[] 】info.mSvidWithFlags[i] &amp; GnssStatus.GNSS_SV_FLAGS_USED_IN_FIX【0x4 2^2 第2个比特位】) != 0</t>
+    <t>GnssLocationProvider: PRN</t>
+  </si>
+  <si>
+    <t>"GnssLocationProvider.java 中  方法 void handleReportSvStatus(SvStatusInfo info) 【PRN-是伪随机噪声码（pseudo random noise code）的缩写，不是卫星卫星的编号】 【 SvStatusInfo.int[] mSvidWithFlags】;  mSvidWithFlags[i] &gt;&gt; GnssStatus.SVID_SHIFT_WIDTH【8,往右移动八位的值】的集合 ||【 GPS卫星所发送的信号包括载波信号、P码、C/A码和数据码(或称D码)等多种信号分量  每一卫星有一个特殊的PRN码《可用来作为卫星的 identify 》 码，所以用户接收机可以通过生成并匹配相同的码样解调一个特别的卫星信号】</t>
   </si>
   <si>
     <t>N</t>
   </si>
   <si>
-    <t>GnssLocationProvider: PRN</t>
-  </si>
-  <si>
-    <t>"GnssLocationProvider.java 中  方法 void handleReportSvStatus(SvStatusInfo info) 【PRN-是伪随机噪声码（pseudo random noise code）的缩写，不是卫星卫星的编号】 【 SvStatusInfo.int[] mSvidWithFlags】;  mSvidWithFlags[i] &gt;&gt; GnssStatus.SVID_SHIFT_WIDTH【8,往右移动八位的值】的集合 ||【 GPS卫星所发送的信号包括载波信号、P码、C/A码和数据码(或称D码)等多种信号分量  每一卫星有一个特殊的PRN码《可用来作为卫星的 identify 》 码，所以用户接收机可以通过生成并匹配相同的码样解调一个特别的卫星信号】</t>
+    <t>GnssLocationProvider: ELE</t>
+  </si>
+  <si>
+    <t>【 ELE是仰角 Elevation , 人与卫星 连接 与 水平面之间的夹角 仰角就是这颗卫星相对地平线的夹角  卫星在头顶是仰角 90度  仰角将从0°增加到90°，然后再减小到0° 】 【 SvStatusInfo.float[] mSvElevations; 】</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: AZM</t>
+  </si>
+  <si>
+    <t>【 Azm是方位角，Azimuth  表示这颗卫星在哪个方向，东北，西北。。。具体多少度 ，俯视图 大地平面 人为圆心  正北为0度 卫星垂直映射到水平面 与原点之间的夹角  】 【 SvStatusInfo.float[] mSvAzimuths;; 】</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: FRQ</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider.java 中  方法 void handleReportSvStatus(SvStatusInfo info) 【 FRQ 频率】 【 SvStatusInfo.float[] mSvCarrierFreqs;;; 】</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider: FLG</t>
+  </si>
+  <si>
+    <t>【 A=第1位=含有历书数据    E=0位=含有星历数据   U=第2位=卫星是否可用 F=第3位=是否含有频率信息】 【 SvStatusInfo.int[] mSvidWithFlags 中最低四位bit位的lag  】 【 SvStatusInfo.float[] mSvCarrierFreqs;;; 】</t>
   </si>
   <si>
     <t>GnssLocationProvider: SNR</t>
   </si>
   <si>
-    <t>GnssLocationProvider.java 中  方法 void handleReportSvStatus(SvStatusInfo info) 【 SNR 信噪比  大于20一般认为信号有效 】 【 SvStatusInfo.float[] mCn0s 】</t>
-  </si>
-  <si>
-    <t>GnssLocationProvider: ELE</t>
-  </si>
-  <si>
-    <t>【 ELE是仰角 Elevation , 人与卫星 连接 与 水平面之间的夹角 仰角就是这颗卫星相对地平线的夹角  卫星在头顶是仰角 90度  仰角将从0°增加到90°，然后再减小到0° 】 【 SvStatusInfo.float[] mSvElevations; 】</t>
-  </si>
-  <si>
-    <t>GnssLocationProvider: AZM</t>
-  </si>
-  <si>
-    <t>【 Azm是方位角，Azimuth  表示这颗卫星在哪个方向，东北，西北。。。具体多少度 ，俯视图 大地平面 人为圆心  正北为0度 卫星垂直映射到水平面 与原点之间的夹角  】 【 SvStatusInfo.float[] mSvAzimuths;; 】</t>
-  </si>
-  <si>
-    <t>GnssLocationProvider: FRQ</t>
-  </si>
-  <si>
-    <t>GnssLocationProvider.java 中  方法 void handleReportSvStatus(SvStatusInfo info) 【 FRQ 频率?  】 【 SvStatusInfo.float[] mSvCarrierFreqs;;; 】</t>
-  </si>
-  <si>
-    <t>GnssLocationProvider: FLG</t>
-  </si>
-  <si>
-    <t>【 A=第1位=含有历书数据    E=0位=含有星历数据   U=第2位=卫星是否可用 F=第3位=是否含有频率信息】 【 SvStatusInfo.int[] mSvidWithFlags 中最低四位bit位的lag  】 【 SvStatusInfo.float[] mSvCarrierFreqs;;; 】</t>
+    <t>【卫星信号 20最低要求 30一般信号】</t>
   </si>
   <si>
     <t>GnssLocationProvider: GPS_STATUS_ENGINE_ON</t>
@@ -1140,16 +1208,28 @@
     <t>无法请求位置</t>
   </si>
   <si>
+    <t>, total injected =</t>
+  </si>
+  <si>
+    <t>插入xtra数据的大小 分布下载</t>
+  </si>
+  <si>
     <t>injectXtraData success</t>
   </si>
   <si>
     <t>注入xtra数据成功</t>
   </si>
   <si>
+    <t>onInjectXtraData</t>
+  </si>
+  <si>
+    <t>注入xtra数据</t>
+  </si>
+  <si>
     <t>Used In Fix:</t>
   </si>
   <si>
-    <t>可用搜星数量</t>
+    <t xml:space="preserve">可用搜星数量  【 SNR 信噪比  大于20一般认为信号有效 】  // /hardware/qcom/sdmxxx/gps/sdmxxx/gnss/ libgnss.so上报 , GnssLocationProvider.java 中  方法 void handleReportSvStatus(SvStatusInfo info) 中的 int SvStatusInfo.mSvCount【SV count:卫星个数 】 || 【 卫星可用个数 】 usedInFixCount  是int[] mSvidWithFlags 数组中 比特位 0x4 第2位 不为0 的个数 (【 int[] 】info.mSvidWithFlags[i] &amp; GnssStatus.GNSS_SV_FLAGS_USED_IN_FIX【0x4 2^2 第2个比特位】) != 0 </t>
   </si>
   <si>
     <t>GnssManager: GNSS_</t>
@@ -1242,13 +1322,13 @@
     <t>SUPL的TCP网络错误</t>
   </si>
   <si>
-    <t>hal2mnl_gps_start</t>
+    <t>hal2mnl_gps_start:</t>
   </si>
   <si>
     <t>GPS启动</t>
   </si>
   <si>
-    <t>hal2mnl_gps_stop</t>
+    <t>hal2mnl_gps_stop:</t>
   </si>
   <si>
     <t>GPS关闭</t>
@@ -1267,6 +1347,153 @@
   </si>
   <si>
     <t>reportLocation Location</t>
+  </si>
+  <si>
+    <t>FRQ中出现的 L5的卫星频段-用它可能存在残差导致偏移</t>
+  </si>
+  <si>
+    <t>target service=</t>
+  </si>
+  <si>
+    <t>network-provider的服务</t>
+  </si>
+  <si>
+    <t>NLPTTFF</t>
+  </si>
+  <si>
+    <t>网络定位时间</t>
+  </si>
+  <si>
+    <t>Sending Location to</t>
+  </si>
+  <si>
+    <t>发送地址</t>
+  </si>
+  <si>
+    <t>scontext=u:r:mnld:s0 tcontext=u:object_r:gsi_metadata</t>
+  </si>
+  <si>
+    <t>mnld发生Avc denied事件</t>
+  </si>
+  <si>
+    <t>time.xtracloud.net</t>
+  </si>
+  <si>
+    <t>高通xtra辅助数据下载</t>
+  </si>
+  <si>
+    <t>NTP download failed</t>
+  </si>
+  <si>
+    <t>高通NTP时间协议数据下载失败</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.maps permitted = false</t>
+  </si>
+  <si>
+    <t>谷歌地图丢失权限</t>
+  </si>
+  <si>
+    <t>com.google.android.apps.maps permitted = true</t>
+  </si>
+  <si>
+    <t>谷歌地图获取权限</t>
+  </si>
+  <si>
+    <t xml:space="preserve">client_send_download_request: </t>
+  </si>
+  <si>
+    <t>高通xtra辅助数据下载结果</t>
+  </si>
+  <si>
+    <t>onRequestXtraData()</t>
+  </si>
+  <si>
+    <t>请求下载xtra辅助定位数据</t>
+  </si>
+  <si>
+    <t>NTP download success</t>
+  </si>
+  <si>
+    <t>NTP数据下载成功</t>
+  </si>
+  <si>
+    <t>successfully download file</t>
+  </si>
+  <si>
+    <t>成功下载辅助xtra数据</t>
+  </si>
+  <si>
+    <t>total injected</t>
+  </si>
+  <si>
+    <t>xtra数据注入</t>
+  </si>
+  <si>
+    <t>Connected to Android Auto car</t>
+  </si>
+  <si>
+    <t>设备连接上Android_Audo</t>
+  </si>
+  <si>
+    <t>XTRA Failed to</t>
+  </si>
+  <si>
+    <t>XTRA数据下载注入失败</t>
+  </si>
+  <si>
+    <t>GnssMeasValuesTest: GnssMeasurementsEvent</t>
+  </si>
+  <si>
+    <t>GNSS卫星测量事件</t>
+  </si>
+  <si>
+    <t>GnssMeasurement with SatellitePvt</t>
+  </si>
+  <si>
+    <t>GPS搜到一个位置Position_速度V_时间T_的GPS检测事件</t>
+  </si>
+  <si>
+    <t>epo MD5 file download failed</t>
+  </si>
+  <si>
+    <t>MTK-EPO 辅助数据下载失败</t>
+  </si>
+  <si>
+    <t>EPO file is expired</t>
+  </si>
+  <si>
+    <t>MTK-EPO 辅助数据失效</t>
+  </si>
+  <si>
+    <t>EPO MD5 not valid, download EPO</t>
+  </si>
+  <si>
+    <t>尝试下载MTK-EPO 数据</t>
+  </si>
+  <si>
+    <t>EPO2MAIN_EVENT_EPO_DONE</t>
+  </si>
+  <si>
+    <t>EPO下载实践以及结果</t>
+  </si>
+  <si>
+    <t>failed to process request. status code:465</t>
+  </si>
+  <si>
+    <t>高通辅助定位xtra数据超过限制下载失败</t>
+  </si>
+  <si>
+    <t>EPO file is valid</t>
+  </si>
+  <si>
+    <t>EPO文件认证期有效</t>
+  </si>
+  <si>
+    <t>EPO MD5 check success</t>
+  </si>
+  <si>
+    <t>EPO文件下载验证成功</t>
   </si>
   <si>
     <t>ON A2DP STARTED</t>
@@ -1396,6 +1623,9 @@
     <t>ActivityTaskManager: Abort background activity starts from 10144</t>
   </si>
   <si>
+    <t>ActivityManager:     95% 1312/lbs_dbg: 8.9% user + 86% kernel</t>
+  </si>
+  <si>
     <t>[scheduler_threa][0x156797e41ce][07:50:11.351480]wlan: [13162:D:PE] lim_send_extended_chan_switch_action_frame: 3752: Send Ext channel Switch to :44:78:3e:43:89:66 with swcount 10, swmode 1 , newchannel 169 newops 125</t>
   </si>
   <si>
@@ -1639,6 +1869,9 @@
     <t>GnssLocationProvider: SNR  27, 30,  0,  0,  0,  0,  0,  0,  0,  0,  0,  0,</t>
   </si>
   <si>
+    <t>GnssLocationProvider.java 中  方法 void handleReportSvStatus(SvStatusInfo info) 【 SNR 信噪比  大于20一般认为信号有效 】 【 SvStatusInfo.float[] mCn0s 】</t>
+  </si>
+  <si>
     <t>GnssLocationProvider: ELE   3, 22, 63,  4, 42, 40, 10, 17, 68,  9, 13, 40,</t>
   </si>
   <si>
@@ -1646,6 +1879,9 @@
   </si>
   <si>
     <t>GnssLocationProvider: FRQ 1575420032,1575420032,1575420032,1575420032,1575420032,1575420032,1575420032,1575420032,1575420032,1575420032,1575420032,1602000000,</t>
+  </si>
+  <si>
+    <t>GnssLocationProvider.java 中  方法 void handleReportSvStatus(SvStatusInfo info) 【 FRQ 频率?  】 【 SvStatusInfo.float[] mSvCarrierFreqs;;; 】</t>
   </si>
   <si>
     <t>GnssLocationProvider: FLG  A F, A F, A F, A F, A F, A F, A F, A F, A F, A F, A F, A F,</t>
@@ -1707,6 +1943,20 @@
   <si>
     <t xml:space="preserve">01-20 18:03:05.908  2050  2143 W GnssLocationProvider: Unable to request location.
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-28 11:06:47.876  2956  2972 D LocSvc_IzatApiV02: [operator():1838] part 38/38, len = 880, total injected = 37888
+</t>
+  </si>
+  <si>
+    <t>下载数据 分布  38/38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-28 11:06:48.054  2956  2972 D LocSvc_IzatApiV02: operator():1868] injectXtraData success
+</t>
+  </si>
+  <si>
+    <t>高通Xtra数据下载成功</t>
   </si>
 </sst>
 </file>
@@ -1736,6 +1986,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1759,14 +2017,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2186,10 +2436,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2198,16 +2448,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2216,13 +2466,13 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2243,13 +2493,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2261,10 +2511,10 @@
     <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2279,56 +2529,56 @@
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2347,10 +2597,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2701,12 +2966,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2982,6 +3247,57 @@
         <v>59</v>
       </c>
     </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" ht="42" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" t="s">
+        <v>70</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2995,7 +3311,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -3008,12 +3324,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G122"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A117" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3052,26 +3368,26 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>11</v>
@@ -3079,26 +3395,26 @@
     </row>
     <row r="5" ht="28" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" ht="42" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="28" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:2">
@@ -3106,262 +3422,262 @@
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" ht="42" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" ht="42" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" ht="56" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="12" ht="28" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" ht="42" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" ht="28" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>89</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>92</v>
+        <v>103</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" ht="28" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" ht="42" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" ht="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" ht="28" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="31" ht="28" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="34" ht="28" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
     </row>
     <row r="35" ht="28" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>128</v>
+        <v>139</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="36" ht="28" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="37" ht="28" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="38" ht="28" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" ht="56" spans="1:2">
@@ -3374,125 +3690,125 @@
     </row>
     <row r="40" ht="42" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
     </row>
     <row r="41" ht="42" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>141</v>
+        <v>152</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>145</v>
+        <v>156</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>147</v>
+        <v>158</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" ht="28" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" ht="28" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>157</v>
+        <v>168</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="1" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>11</v>
@@ -3500,74 +3816,74 @@
     </row>
     <row r="55" ht="28" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="56" ht="28" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" ht="28" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" ht="28" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" ht="28" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
     </row>
     <row r="60" ht="42" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" ht="28" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="62" ht="28" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" ht="56" spans="1:5">
       <c r="A63" s="1" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="E63" s="3" t="s">
         <v>11</v>
@@ -3575,66 +3891,66 @@
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>187</v>
+        <v>198</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>188</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="1" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
       <c r="E71" s="3" t="s">
         <v>11</v>
@@ -3642,431 +3958,483 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="1" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="1" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="1" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="1" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="1" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="1" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="1" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" ht="28" spans="1:2">
       <c r="A84" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="1" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" ht="42" spans="1:2">
       <c r="A86" s="1" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="1" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="1" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" ht="28" spans="1:2">
       <c r="A90" s="1" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="91" ht="28" spans="1:2">
       <c r="A91" s="1" t="s">
-        <v>236</v>
+        <v>247</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="1" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="1" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="1" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="1" t="s">
-        <v>244</v>
+        <v>255</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="1" t="s">
-        <v>245</v>
+        <v>256</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="1" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" ht="28" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>249</v>
+        <v>260</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>251</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="1" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>253</v>
+        <v>264</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="1" t="s">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>255</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="1" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102" ht="28" spans="1:2">
       <c r="A102" s="1" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
     </row>
     <row r="103" ht="28" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="104" ht="28" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>263</v>
+        <v>274</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>261</v>
+        <v>272</v>
       </c>
     </row>
     <row r="105" spans="1:2">
       <c r="A105" s="1" t="s">
-        <v>264</v>
+        <v>275</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>265</v>
+        <v>276</v>
       </c>
     </row>
     <row r="106" spans="1:2">
       <c r="A106" s="1" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:2">
       <c r="A107" s="1" t="s">
-        <v>268</v>
+        <v>279</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:2">
       <c r="A108" s="1" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
     </row>
     <row r="109" spans="1:2">
       <c r="A109" s="1" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
     </row>
     <row r="110" ht="42" spans="1:2">
       <c r="A110" s="1" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
     </row>
     <row r="111" ht="42" spans="1:2">
       <c r="A111" s="1" t="s">
-        <v>276</v>
+        <v>287</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
     <row r="112" ht="42" spans="1:2">
       <c r="A112" s="1" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>279</v>
+        <v>290</v>
       </c>
     </row>
     <row r="113" spans="1:2">
       <c r="A113" s="1" t="s">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>281</v>
+        <v>292</v>
       </c>
     </row>
     <row r="114" spans="1:2">
       <c r="A114" s="1" t="s">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="115" ht="42" spans="1:2">
       <c r="A115" s="1" t="s">
-        <v>284</v>
+        <v>295</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="116" spans="1:2">
       <c r="A116" s="1" t="s">
-        <v>266</v>
+        <v>277</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>286</v>
+        <v>297</v>
       </c>
     </row>
     <row r="117" spans="1:2">
       <c r="A117" s="1" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
     </row>
     <row r="118" spans="1:2">
       <c r="A118" s="1" t="s">
-        <v>289</v>
+        <v>300</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>290</v>
+        <v>301</v>
       </c>
     </row>
     <row r="119" ht="84" spans="1:6">
       <c r="A119" s="1" t="s">
-        <v>291</v>
+        <v>302</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="F119" s="7" t="s">
-        <v>293</v>
+        <v>303</v>
+      </c>
+      <c r="F119" s="11" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="120" ht="56" spans="1:2">
       <c r="A120" s="1" t="s">
-        <v>294</v>
+        <v>305</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
     </row>
     <row r="121" ht="56" spans="1:2">
       <c r="A121" s="1" t="s">
-        <v>296</v>
+        <v>307</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>295</v>
+        <v>306</v>
       </c>
     </row>
     <row r="122" ht="56" spans="1:6">
       <c r="A122" s="1" t="s">
-        <v>297</v>
+        <v>308</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="F122" s="7" t="s">
-        <v>299</v>
+        <v>309</v>
+      </c>
+      <c r="F122" s="11" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="124" ht="70" spans="1:6">
+      <c r="A124" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="F124" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>323</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F119" r:id="rId1" display="https://cs.android.com/android/platform/superproject/+/master:packages/modules/Wifi/service/java/com/android/server/wifi/WifiCountryCode.java;l=50;bpv=1;bpt=0?q=WifiCountryCode&amp;sq=&amp;ss=android%2Fplatform%2Fsuperproject"/>
     <hyperlink ref="F122" r:id="rId2" display="https://sse.am.mot.com/s_source/xref/ms-r-q8450/vendor/qcom/opensource/wlan/qca-wifi-host-cmn/qdf/inc/qdf_types.h?r=5106702b#1520"/>
+    <hyperlink ref="F124" r:id="rId3" display="https://sse.am.mot.com/s_source/xref/ms-r-q8450/vendor/qcom/opensource/wlan/qcacld-3.0/core/hdd/src/wlan_hdd_driver_ops.c?r=a8a418aa&amp;mo=51149&amp;fi=2095" tooltip="https://sse.am.mot.com/s_source/xref/ms-r-q8450/vendor/qcom/opensource/wlan/qcacld-3.0/core/hdd/src/wlan_hdd_driver_ops.c?r=a8a418aa&amp;mo=51149&amp;fi=2095"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4077,500 +4445,707 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A31" sqref="A31"/>
+      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="89.2181818181818" customWidth="1"/>
-    <col min="2" max="2" width="51.4545454545455" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="4"/>
-    <col min="5" max="5" width="16.3636363636364" style="4" customWidth="1"/>
-    <col min="6" max="6" width="19.2727272727273" customWidth="1"/>
+    <col min="1" max="1" width="89.2181818181818" style="6" customWidth="1"/>
+    <col min="2" max="2" width="51.4545454545455" style="7" customWidth="1"/>
+    <col min="3" max="4" width="9" style="6"/>
+    <col min="5" max="5" width="16.3636363636364" style="6" customWidth="1"/>
+    <col min="6" max="6" width="19.2727272727273" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="49" customHeight="1" spans="1:6">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>301</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>302</v>
+      <c r="A2" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>303</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>304</v>
+      <c r="A3" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>305</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="5" ht="126" spans="1:3">
-      <c r="A5" t="s">
-        <v>307</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C5" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="6" ht="154" spans="1:3">
-      <c r="A6" t="s">
-        <v>310</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="C6" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="7" ht="56" spans="1:2">
-      <c r="A7" t="s">
-        <v>312</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="8" ht="56" spans="1:3">
-      <c r="A8" t="s">
-        <v>314</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="C8" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="9" ht="56" spans="1:3">
-      <c r="A9" t="s">
-        <v>316</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C9" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="10" ht="56" spans="1:3">
-      <c r="A10" t="s">
-        <v>318</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="C10" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="11" ht="70" spans="1:3">
-      <c r="A11" t="s">
-        <v>320</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="C11" t="s">
-        <v>309</v>
+      <c r="A4" s="6" t="s">
+        <v>329</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" ht="154" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" ht="56" spans="1:3">
+      <c r="A6" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" ht="56" spans="1:3">
+      <c r="A7" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="8" ht="42" spans="1:3">
+      <c r="A8" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="9" ht="70" spans="1:3">
+      <c r="A9" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>324</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" t="s">
-        <v>326</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="C14" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="15" ht="28" spans="1:3">
-      <c r="A15" t="s">
-        <v>328</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="C15" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="16" ht="84" spans="1:2">
-      <c r="A16" t="s">
-        <v>330</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>331</v>
+      <c r="A12" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="14" ht="28" spans="1:3">
+      <c r="A14" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" ht="84" spans="1:2">
+      <c r="A15" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>332</v>
-      </c>
-      <c r="B17" s="1" t="s">
+      <c r="A17" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="21" ht="28" spans="1:2">
+      <c r="A21" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="23" ht="28" spans="1:2">
+      <c r="A23" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B27" s="7" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="C28" s="6" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>334</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
-        <v>336</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" t="s">
-        <v>338</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" t="s">
-        <v>340</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="22" ht="28" spans="1:2">
-      <c r="A22" t="s">
-        <v>342</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="24" ht="28" spans="1:2">
-      <c r="A24" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" t="s">
-        <v>348</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" t="s">
-        <v>350</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" t="s">
-        <v>352</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" t="s">
-        <v>354</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
-        <v>356</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="C29" t="s">
-        <v>309</v>
+    <row r="29" spans="1:2">
+      <c r="A29" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B29" s="7" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" t="s">
-        <v>358</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>359</v>
+      <c r="A30" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>383</v>
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" t="s">
-        <v>360</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>361</v>
+      <c r="A31" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" t="s">
-        <v>362</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>363</v>
+      <c r="A32" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>387</v>
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" t="s">
-        <v>364</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>365</v>
+      <c r="A33" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" t="s">
-        <v>366</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>367</v>
+      <c r="A34" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" t="s">
-        <v>370</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>371</v>
+      <c r="A35" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="36" ht="140" spans="1:2">
+      <c r="A36" s="10" t="s">
+        <v>394</v>
+      </c>
+      <c r="B36" s="7" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" t="s">
-        <v>372</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>373</v>
+      <c r="A37" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" t="s">
-        <v>374</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>375</v>
+      <c r="A38" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" t="s">
-        <v>376</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>377</v>
+      <c r="A39" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>401</v>
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" t="s">
-        <v>378</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>379</v>
+      <c r="A40" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B40" s="7" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" t="s">
-        <v>380</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>381</v>
+      <c r="A41" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" t="s">
-        <v>382</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>383</v>
+      <c r="A42" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="B42" s="7" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" t="s">
-        <v>384</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>385</v>
+      <c r="A43" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B43" s="7" t="s">
+        <v>409</v>
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" t="s">
-        <v>386</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>387</v>
+      <c r="A44" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B44" s="7" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" t="s">
-        <v>388</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>389</v>
+      <c r="A45" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="B45" s="7" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" t="s">
-        <v>390</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>391</v>
+      <c r="A46" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B46" s="7" t="s">
+        <v>415</v>
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" t="s">
-        <v>392</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>393</v>
+      <c r="A47" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" t="s">
-        <v>394</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>395</v>
+      <c r="A48" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B48" s="7" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" t="s">
-        <v>396</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>397</v>
+      <c r="A49" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B49" s="7" t="s">
+        <v>421</v>
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" t="s">
-        <v>398</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>399</v>
+      <c r="A50" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="B50" s="7" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="51" spans="1:2">
-      <c r="A51" t="s">
-        <v>400</v>
-      </c>
-      <c r="B51" s="1" t="s">
+      <c r="A51" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="B51" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="B52" s="7" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="B53" s="7" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B56" s="7" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52" t="s">
-        <v>402</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53" t="s">
-        <v>404</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54" t="s">
-        <v>406</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
-      <c r="A55" t="s">
-        <v>408</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>375</v>
+    <row r="57" spans="1:2">
+      <c r="A57" s="6">
+        <v>1176450048</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B58" s="7" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="B59" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B60" s="7" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="B61" s="7" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="6" t="s">
+        <v>444</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B63" s="7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B64" s="7" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B65" s="7" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B66" s="7" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B67" s="7" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B68" s="7" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B69" s="7" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="B70" s="7" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B72" s="7" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="B73" s="7" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B74" s="7" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B75" s="7" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B76" s="7" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B77" s="7" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B78" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B79" s="7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B80" s="7" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="B81" s="7" t="s">
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -4586,7 +5161,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -4609,7 +5184,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -4620,74 +5195,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>409</v>
+        <v>484</v>
       </c>
       <c r="B2" t="s">
-        <v>410</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>411</v>
+        <v>486</v>
       </c>
       <c r="B3" t="s">
-        <v>412</v>
+        <v>487</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>413</v>
+        <v>488</v>
       </c>
       <c r="B4" t="s">
-        <v>414</v>
+        <v>489</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>415</v>
+        <v>490</v>
       </c>
       <c r="B5" t="s">
-        <v>416</v>
+        <v>491</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>417</v>
+        <v>492</v>
       </c>
       <c r="B6" t="s">
-        <v>418</v>
+        <v>493</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>419</v>
+        <v>494</v>
       </c>
       <c r="B7" t="s">
-        <v>420</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>421</v>
+        <v>496</v>
       </c>
       <c r="B8" t="s">
-        <v>422</v>
+        <v>497</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>498</v>
       </c>
       <c r="B9" t="s">
-        <v>424</v>
+        <v>499</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>425</v>
+        <v>500</v>
       </c>
       <c r="B10" t="s">
-        <v>426</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -4703,7 +5278,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -4726,7 +5301,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -4745,10 +5320,10 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -4763,7 +5338,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>427</v>
+        <v>502</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4774,12 +5349,12 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>428</v>
+        <v>503</v>
       </c>
     </row>
     <row r="3" ht="84" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>429</v>
+        <v>504</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -4787,7 +5362,7 @@
     </row>
     <row r="4" ht="56" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>430</v>
+        <v>505</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -4819,15 +5394,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>431</v>
+        <v>506</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>432</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" ht="154" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>433</v>
+        <v>508</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
@@ -4835,7 +5410,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>434</v>
+        <v>509</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>
@@ -4843,7 +5418,7 @@
     </row>
     <row r="11" ht="42" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>435</v>
+        <v>510</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
@@ -4851,7 +5426,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>436</v>
+        <v>511</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
@@ -4859,10 +5434,10 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>437</v>
+        <v>512</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>438</v>
+        <v>513</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -4875,7 +5450,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>439</v>
+        <v>514</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>37</v>
@@ -4883,31 +5458,31 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>440</v>
+        <v>515</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>441</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>442</v>
+        <v>517</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>443</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>444</v>
+        <v>519</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>349</v>
+        <v>371</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>445</v>
+        <v>520</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>42</v>
@@ -4915,7 +5490,7 @@
     </row>
     <row r="20" ht="154" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>446</v>
+        <v>521</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>44</v>
@@ -4923,10 +5498,15 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>447</v>
+        <v>522</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="1" t="s">
+        <v>523</v>
       </c>
     </row>
   </sheetData>
@@ -4944,7 +5524,7 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A76" sqref="A76"/>
+      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -4959,7 +5539,7 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>427</v>
+        <v>502</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4967,602 +5547,602 @@
     </row>
     <row r="2" ht="42" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>448</v>
+        <v>524</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>449</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>450</v>
+        <v>526</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>451</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4" ht="28" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>452</v>
+        <v>528</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>453</v>
+        <v>529</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>454</v>
+        <v>530</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" ht="56" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>455</v>
+        <v>531</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>456</v>
+        <v>532</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>457</v>
+        <v>533</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>458</v>
+        <v>534</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>459</v>
+        <v>535</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>457</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>460</v>
+        <v>536</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>86</v>
+        <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>461</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>462</v>
+        <v>538</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>463</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" ht="28" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>464</v>
+        <v>540</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" ht="28" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>465</v>
+        <v>541</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" ht="28" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>466</v>
+        <v>542</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" ht="28" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>467</v>
+        <v>543</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>468</v>
+        <v>544</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>469</v>
+        <v>545</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>470</v>
+        <v>546</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>471</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>472</v>
+        <v>548</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" ht="28" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>473</v>
+        <v>549</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" ht="42" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" ht="28" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>474</v>
+        <v>550</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>475</v>
+        <v>551</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
     </row>
     <row r="25" ht="28" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>476</v>
+        <v>552</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>477</v>
+        <v>553</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" ht="28" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>478</v>
+        <v>554</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>121</v>
+        <v>132</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>479</v>
+        <v>555</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" ht="28" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>480</v>
+        <v>556</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>125</v>
+        <v>136</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>481</v>
+        <v>557</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>482</v>
+        <v>558</v>
       </c>
     </row>
     <row r="31" ht="28" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>483</v>
+        <v>559</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>129</v>
+        <v>140</v>
       </c>
     </row>
     <row r="32" ht="28" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>484</v>
+        <v>560</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>131</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>485</v>
+        <v>561</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" ht="56" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>486</v>
+        <v>562</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" ht="42" spans="1:2">
       <c r="A35" s="1" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>487</v>
+        <v>563</v>
       </c>
     </row>
     <row r="36" ht="56" spans="1:2">
       <c r="A36" s="1" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>488</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>489</v>
+        <v>565</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>142</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>490</v>
+        <v>566</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" ht="28" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>491</v>
+        <v>567</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>146</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" ht="28" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>492</v>
+        <v>568</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>493</v>
+        <v>569</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>150</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" ht="28" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>494</v>
+        <v>570</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>152</v>
+        <v>163</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>495</v>
+        <v>571</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>154</v>
+        <v>165</v>
       </c>
     </row>
     <row r="44" ht="28" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>496</v>
+        <v>572</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>497</v>
+        <v>573</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>158</v>
+        <v>169</v>
       </c>
     </row>
     <row r="46" ht="28" spans="1:2">
       <c r="A46" s="1" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>490</v>
+        <v>566</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
     </row>
     <row r="49" ht="42" spans="1:2">
       <c r="A49" s="1" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" ht="42" spans="1:2">
       <c r="A50" s="1" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>498</v>
+        <v>574</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
     </row>
     <row r="52" ht="28" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>499</v>
+        <v>575</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row r="53" ht="28" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>500</v>
+        <v>576</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
     </row>
     <row r="54" ht="28" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>501</v>
+        <v>577</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="55" ht="28" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>502</v>
+        <v>578</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row r="56" ht="28" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>503</v>
+        <v>579</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>504</v>
+        <v>580</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" ht="28" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>505</v>
+        <v>581</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
     <row r="59" ht="28" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>506</v>
+        <v>582</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60" ht="28" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>507</v>
+        <v>583</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>508</v>
+        <v>584</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>509</v>
+        <v>585</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
     </row>
     <row r="63" ht="28" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>510</v>
+        <v>586</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
     </row>
     <row r="64" ht="42" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>511</v>
+        <v>587</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
     </row>
     <row r="65" ht="56" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>512</v>
+        <v>588</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" ht="42" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>513</v>
+        <v>589</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" ht="28" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>514</v>
+        <v>590</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>515</v>
+        <v>591</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
     </row>
     <row r="69" ht="56" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>516</v>
+        <v>592</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" ht="28" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>517</v>
+        <v>593</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>518</v>
+        <v>594</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>519</v>
+        <v>595</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
     </row>
     <row r="73" ht="28" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>520</v>
+        <v>596</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
     </row>
     <row r="74" ht="56" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>521</v>
+        <v>597</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>522</v>
+        <v>598</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>267</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>523</v>
+        <v>599</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5575,12 +6155,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -5591,7 +6171,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>427</v>
+        <v>502</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5599,218 +6179,234 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>524</v>
+        <v>600</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>525</v>
+        <v>601</v>
       </c>
     </row>
     <row r="5" ht="112" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>526</v>
+        <v>602</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6" ht="42" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>527</v>
+        <v>603</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>313</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" ht="42" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>528</v>
+        <v>605</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" ht="42" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>529</v>
+        <v>606</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" ht="42" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>530</v>
+        <v>607</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>319</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10" ht="42" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>531</v>
+        <v>609</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>322</v>
+        <v>344</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>532</v>
+        <v>610</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>324</v>
+        <v>346</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>325</v>
+        <v>347</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>326</v>
+        <v>348</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>327</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>328</v>
+        <v>350</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>329</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>533</v>
+        <v>611</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>331</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" ht="56" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>534</v>
+        <v>612</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>333</v>
+        <v>355</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>535</v>
+        <v>613</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>339</v>
+        <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>536</v>
+        <v>614</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>341</v>
+        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>537</v>
+        <v>615</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>538</v>
+        <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>345</v>
+        <v>367</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>346</v>
+        <v>368</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>347</v>
+        <v>369</v>
       </c>
     </row>
     <row r="22" ht="70" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>539</v>
+        <v>617</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>351</v>
+        <v>373</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>540</v>
+        <v>618</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>353</v>
+        <v>375</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>541</v>
+        <v>619</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>355</v>
+        <v>377</v>
       </c>
     </row>
     <row r="25" ht="210" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>542</v>
+        <v>620</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>543</v>
+        <v>621</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>544</v>
+        <v>622</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>359</v>
+        <v>381</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>545</v>
+        <v>623</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>546</v>
+        <v>624</v>
       </c>
     </row>
     <row r="28" ht="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>547</v>
+        <v>625</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>365</v>
+        <v>387</v>
+      </c>
+    </row>
+    <row r="29" ht="28" spans="1:2">
+      <c r="A29" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="30" ht="28" spans="1:2">
+      <c r="A30" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -5825,7 +6421,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="A127" sqref="A127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>

--- a/tool/notepad_zbinfile/zbin/J9_Log.xlsx
+++ b/tool/notepad_zbinfile/zbin/J9_Log.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="632">
   <si>
     <t>关键词</t>
   </si>
@@ -1494,6 +1494,12 @@
   </si>
   <si>
     <t>EPO文件下载验证成功</t>
+  </si>
+  <si>
+    <t>DAT download success</t>
+  </si>
+  <si>
+    <t>EPO文件下载成功</t>
   </si>
   <si>
     <t>ON A2DP STARTED</t>
@@ -4445,12 +4451,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A81" sqref="A81"/>
+      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5146,6 +5152,14 @@
       </c>
       <c r="B81" s="7" t="s">
         <v>483</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B82" s="7" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -5195,74 +5209,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B2" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B4" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B6" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B7" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B8" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B9" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B10" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -5338,7 +5352,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5349,12 +5363,12 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" ht="84" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -5362,7 +5376,7 @@
     </row>
     <row r="4" ht="56" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -5394,15 +5408,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" ht="154" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
@@ -5410,7 +5424,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>
@@ -5418,7 +5432,7 @@
     </row>
     <row r="11" ht="42" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
@@ -5426,7 +5440,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
@@ -5434,10 +5448,10 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5450,7 +5464,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>37</v>
@@ -5458,23 +5472,23 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>371</v>
@@ -5482,7 +5496,7 @@
     </row>
     <row r="19" ht="42" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>42</v>
@@ -5490,7 +5504,7 @@
     </row>
     <row r="20" ht="154" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>44</v>
@@ -5498,7 +5512,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>46</v>
@@ -5506,7 +5520,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -5539,7 +5553,7 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5547,31 +5561,31 @@
     </row>
     <row r="2" ht="42" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="4" ht="28" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>85</v>
@@ -5579,7 +5593,7 @@
     </row>
     <row r="6" ht="56" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>87</v>
@@ -5587,15 +5601,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>91</v>
@@ -5603,15 +5617,15 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>96</v>
@@ -5622,20 +5636,20 @@
         <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="13" ht="28" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>102</v>
@@ -5643,7 +5657,7 @@
     </row>
     <row r="14" ht="28" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>104</v>
@@ -5651,7 +5665,7 @@
     </row>
     <row r="15" ht="28" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>109</v>
@@ -5659,7 +5673,7 @@
     </row>
     <row r="16" ht="28" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>107</v>
@@ -5667,23 +5681,23 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>116</v>
@@ -5691,7 +5705,7 @@
     </row>
     <row r="20" ht="28" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>118</v>
@@ -5715,7 +5729,7 @@
     </row>
     <row r="23" ht="28" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>126</v>
@@ -5723,7 +5737,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>124</v>
@@ -5731,7 +5745,7 @@
     </row>
     <row r="25" ht="28" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>128</v>
@@ -5739,7 +5753,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>130</v>
@@ -5747,7 +5761,7 @@
     </row>
     <row r="27" ht="28" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>132</v>
@@ -5755,7 +5769,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>134</v>
@@ -5763,7 +5777,7 @@
     </row>
     <row r="29" ht="28" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>136</v>
@@ -5771,15 +5785,15 @@
     </row>
     <row r="30" ht="28" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="31" ht="28" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>140</v>
@@ -5787,7 +5801,7 @@
     </row>
     <row r="32" ht="28" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>142</v>
@@ -5795,7 +5809,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>144</v>
@@ -5803,7 +5817,7 @@
     </row>
     <row r="34" ht="56" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>146</v>
@@ -5814,7 +5828,7 @@
         <v>147</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="36" ht="56" spans="1:2">
@@ -5822,12 +5836,12 @@
         <v>150</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>153</v>
@@ -5835,7 +5849,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>155</v>
@@ -5843,7 +5857,7 @@
     </row>
     <row r="39" ht="28" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>157</v>
@@ -5851,7 +5865,7 @@
     </row>
     <row r="40" ht="28" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>159</v>
@@ -5859,7 +5873,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>161</v>
@@ -5867,7 +5881,7 @@
     </row>
     <row r="42" ht="28" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>163</v>
@@ -5875,7 +5889,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>165</v>
@@ -5883,7 +5897,7 @@
     </row>
     <row r="44" ht="28" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>167</v>
@@ -5891,7 +5905,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>169</v>
@@ -5915,7 +5929,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>175</v>
@@ -5939,7 +5953,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>212</v>
@@ -5947,7 +5961,7 @@
     </row>
     <row r="52" ht="28" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>214</v>
@@ -5955,7 +5969,7 @@
     </row>
     <row r="53" ht="28" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>216</v>
@@ -5963,7 +5977,7 @@
     </row>
     <row r="54" ht="28" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>218</v>
@@ -5971,7 +5985,7 @@
     </row>
     <row r="55" ht="28" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>220</v>
@@ -5979,7 +5993,7 @@
     </row>
     <row r="56" ht="28" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>222</v>
@@ -5987,7 +6001,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>224</v>
@@ -5995,7 +6009,7 @@
     </row>
     <row r="58" ht="28" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>226</v>
@@ -6003,7 +6017,7 @@
     </row>
     <row r="59" ht="28" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>228</v>
@@ -6011,7 +6025,7 @@
     </row>
     <row r="60" ht="28" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>230</v>
@@ -6019,7 +6033,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>228</v>
@@ -6027,7 +6041,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>230</v>
@@ -6035,7 +6049,7 @@
     </row>
     <row r="63" ht="28" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>234</v>
@@ -6043,7 +6057,7 @@
     </row>
     <row r="64" ht="42" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>236</v>
@@ -6051,7 +6065,7 @@
     </row>
     <row r="65" ht="56" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>238</v>
@@ -6059,7 +6073,7 @@
     </row>
     <row r="66" ht="42" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>240</v>
@@ -6067,7 +6081,7 @@
     </row>
     <row r="67" ht="28" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>242</v>
@@ -6075,7 +6089,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>244</v>
@@ -6083,7 +6097,7 @@
     </row>
     <row r="69" ht="56" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>246</v>
@@ -6091,7 +6105,7 @@
     </row>
     <row r="70" ht="28" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>248</v>
@@ -6099,7 +6113,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>250</v>
@@ -6107,7 +6121,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>252</v>
@@ -6115,7 +6129,7 @@
     </row>
     <row r="73" ht="28" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>254</v>
@@ -6123,7 +6137,7 @@
     </row>
     <row r="74" ht="56" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>271</v>
@@ -6131,7 +6145,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>278</v>
@@ -6139,7 +6153,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>280</v>
@@ -6171,7 +6185,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6195,15 +6209,15 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
     </row>
     <row r="5" ht="112" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>332</v>
@@ -6211,15 +6225,15 @@
     </row>
     <row r="6" ht="42" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="7" ht="42" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>335</v>
@@ -6227,7 +6241,7 @@
     </row>
     <row r="8" ht="42" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>337</v>
@@ -6235,15 +6249,15 @@
     </row>
     <row r="9" ht="42" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10" ht="42" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>341</v>
@@ -6254,7 +6268,7 @@
         <v>344</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -6283,7 +6297,7 @@
     </row>
     <row r="15" ht="56" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>353</v>
@@ -6291,7 +6305,7 @@
     </row>
     <row r="16" ht="56" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>355</v>
@@ -6299,7 +6313,7 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>361</v>
@@ -6307,7 +6321,7 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>363</v>
@@ -6315,10 +6329,10 @@
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -6339,7 +6353,7 @@
     </row>
     <row r="22" ht="70" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>373</v>
@@ -6347,7 +6361,7 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>375</v>
@@ -6355,7 +6369,7 @@
     </row>
     <row r="24" ht="42" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>377</v>
@@ -6363,15 +6377,15 @@
     </row>
     <row r="25" ht="210" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>381</v>
@@ -6379,15 +6393,15 @@
     </row>
     <row r="27" ht="42" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="28" ht="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>387</v>
@@ -6395,18 +6409,18 @@
     </row>
     <row r="29" ht="28" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>

--- a/tool/notepad_zbinfile/zbin/J9_Log.xlsx
+++ b/tool/notepad_zbinfile/zbin/J9_Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7010" tabRatio="842" activeTab="2"/>
+    <workbookView windowWidth="19200" windowHeight="7000" tabRatio="842" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="COMMON" sheetId="13" r:id="rId1"/>
@@ -18,12 +18,25 @@
     <sheet name="LOG_BT" sheetId="7" r:id="rId9"/>
     <sheet name="LOG_NFC" sheetId="8" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="647">
   <si>
     <t>关键词</t>
   </si>
@@ -1016,6 +1029,27 @@
     <t>热点接口初始化失败</t>
   </si>
   <si>
+    <t>STA kickout for</t>
+  </si>
+  <si>
+    <t>设备被踢出热点</t>
+  </si>
+  <si>
+    <t>AssocRsp frame failure code</t>
+  </si>
+  <si>
+    <t>关联失败原因</t>
+  </si>
+  <si>
+    <t>https://sse.am.mot.com/u_source/xref/mu-r-q8650/vendor/qcom/opensource/wlan/qca-wifi-host-cmn/umac/cmn_services/cmn_defs/inc/wlan_cmn_ieee80211.h?r=cacf83f64cd3c99c2b20133a99be7ffad197a3f5&amp;fi=STATUS_ASSOC_REJECTED_TEMPORARILY#STATUS_ASSOC_REJECTED_TEMPORARILY</t>
+  </si>
+  <si>
+    <t>locally-generated disconnect</t>
+  </si>
+  <si>
+    <t>Wifi网络断开</t>
+  </si>
+  <si>
     <t>是否过滤重复</t>
   </si>
   <si>
@@ -1500,6 +1534,30 @@
   </si>
   <si>
     <t>EPO文件下载成功</t>
+  </si>
+  <si>
+    <t>hal_gps_scheduling_stop: SCHEDULING</t>
+  </si>
+  <si>
+    <t>GPS预计关闭</t>
+  </si>
+  <si>
+    <t>hal_gps_scheduling_start: location_scheduling_timeout_timer</t>
+  </si>
+  <si>
+    <t>GPS启动并设置超时关闭</t>
+  </si>
+  <si>
+    <t>location failed by Baidu</t>
+  </si>
+  <si>
+    <t>百度定位失败</t>
+  </si>
+  <si>
+    <t>location successful by Baidu</t>
+  </si>
+  <si>
+    <t>百度定位成功</t>
   </si>
   <si>
     <t>ON A2DP STARTED</t>
@@ -1968,14 +2026,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1988,7 +2046,15 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1997,42 +2063,6 @@
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2072,6 +2102,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2122,7 +2167,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2143,55 +2209,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2209,31 +2233,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2257,6 +2269,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2269,7 +2293,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2293,7 +2341,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2317,6 +2377,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -2334,21 +2400,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2381,6 +2432,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2439,152 +2505,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2618,61 +2684,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -2975,9 +3044,9 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A36" sqref="A36"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3037,14 +3106,16 @@
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" customFormat="1" ht="42" customHeight="1" spans="1:6">
+    <row r="4" ht="42" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4"/>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
@@ -3330,12 +3401,12 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A124" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
+      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -4354,7 +4425,7 @@
       <c r="B119" s="1" t="s">
         <v>303</v>
       </c>
-      <c r="F119" s="11" t="s">
+      <c r="F119" s="12" t="s">
         <v>304</v>
       </c>
     </row>
@@ -4381,7 +4452,7 @@
       <c r="B122" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="F122" s="11" t="s">
+      <c r="F122" s="12" t="s">
         <v>310</v>
       </c>
     </row>
@@ -4400,7 +4471,7 @@
       <c r="B124" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="F124" s="12" t="s">
+      <c r="F124" s="13" t="s">
         <v>315</v>
       </c>
     </row>
@@ -4436,11 +4507,39 @@
         <v>323</v>
       </c>
     </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="130" ht="112" spans="1:6">
+      <c r="A130" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="F130" s="13" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F119" r:id="rId1" display="https://cs.android.com/android/platform/superproject/+/master:packages/modules/Wifi/service/java/com/android/server/wifi/WifiCountryCode.java;l=50;bpv=1;bpt=0?q=WifiCountryCode&amp;sq=&amp;ss=android%2Fplatform%2Fsuperproject"/>
-    <hyperlink ref="F122" r:id="rId2" display="https://sse.am.mot.com/s_source/xref/ms-r-q8450/vendor/qcom/opensource/wlan/qca-wifi-host-cmn/qdf/inc/qdf_types.h?r=5106702b#1520"/>
+    <hyperlink ref="F122" r:id="rId2" location="1520" display="https://sse.am.mot.com/s_source/xref/ms-r-q8450/vendor/qcom/opensource/wlan/qca-wifi-host-cmn/qdf/inc/qdf_types.h?r=5106702b#1520"/>
     <hyperlink ref="F124" r:id="rId3" display="https://sse.am.mot.com/s_source/xref/ms-r-q8450/vendor/qcom/opensource/wlan/qcacld-3.0/core/hdd/src/wlan_hdd_driver_ops.c?r=a8a418aa&amp;mo=51149&amp;fi=2095" tooltip="https://sse.am.mot.com/s_source/xref/ms-r-q8450/vendor/qcom/opensource/wlan/qcacld-3.0/core/hdd/src/wlan_hdd_driver_ops.c?r=a8a418aa&amp;mo=51149&amp;fi=2095"/>
+    <hyperlink ref="F130" r:id="rId4" display="https://sse.am.mot.com/u_source/xref/mu-r-q8650/vendor/qcom/opensource/wlan/qca-wifi-host-cmn/umac/cmn_services/cmn_defs/inc/wlan_cmn_ieee80211.h?r=cacf83f64cd3c99c2b20133a99be7ffad197a3f5&amp;fi=STATUS_ASSOC_REJECTED_TEMPORARILY#STATUS_ASSOC_REJECTED_TEMPORARILY"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4451,17 +4550,17 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F82"/>
+  <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B87" sqref="B87"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="89.2181818181818" style="6" customWidth="1"/>
+    <col min="1" max="1" width="89.1818181818182" style="6" customWidth="1"/>
     <col min="2" max="2" width="51.4545454545455" style="7" customWidth="1"/>
     <col min="3" max="4" width="9" style="6"/>
     <col min="5" max="5" width="16.3636363636364" style="6" customWidth="1"/>
@@ -4481,7 +4580,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>5</v>
@@ -4489,469 +4588,469 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5" ht="154" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>331</v>
+        <v>338</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" ht="56" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8" ht="42" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:3">
       <c r="A9" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>340</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>333</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="14" ht="28" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="15" ht="84" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>354</v>
+        <v>361</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>356</v>
+        <v>363</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>358</v>
+        <v>365</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>359</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>360</v>
+        <v>367</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>362</v>
+        <v>369</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:2">
       <c r="A21" s="6" t="s">
-        <v>364</v>
+        <v>371</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>365</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="23" ht="28" spans="1:2">
       <c r="A23" s="7" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>374</v>
+        <v>381</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>378</v>
+        <v>385</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>379</v>
+        <v>386</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>380</v>
+        <v>387</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>382</v>
+        <v>389</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>385</v>
+        <v>392</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
-        <v>386</v>
+        <v>393</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
-        <v>388</v>
+        <v>395</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>389</v>
+        <v>396</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>390</v>
+        <v>397</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>391</v>
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="10" t="s">
-        <v>392</v>
+        <v>399</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>393</v>
+        <v>400</v>
       </c>
     </row>
     <row r="36" ht="140" spans="1:2">
       <c r="A36" s="10" t="s">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>395</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="6" t="s">
-        <v>396</v>
+        <v>403</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>397</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
-        <v>398</v>
+        <v>405</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>399</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
-        <v>400</v>
+        <v>407</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="6" t="s">
-        <v>402</v>
+        <v>409</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>403</v>
+        <v>410</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="6" t="s">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>405</v>
+        <v>412</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>407</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>409</v>
+        <v>416</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
-        <v>410</v>
+        <v>417</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>411</v>
+        <v>418</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>412</v>
+        <v>419</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>413</v>
+        <v>420</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="6" t="s">
-        <v>414</v>
+        <v>421</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>417</v>
+        <v>424</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="6" t="s">
-        <v>418</v>
+        <v>425</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>419</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="6" t="s">
-        <v>420</v>
+        <v>427</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>421</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>422</v>
+        <v>429</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>423</v>
+        <v>430</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>425</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
-        <v>426</v>
+        <v>433</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>427</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
-        <v>428</v>
+        <v>435</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>430</v>
+        <v>437</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>431</v>
+        <v>438</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>432</v>
+        <v>439</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>433</v>
+        <v>440</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>434</v>
+        <v>441</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>401</v>
+        <v>408</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -4959,207 +5058,239 @@
         <v>1176450048</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>435</v>
+        <v>442</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="6" t="s">
-        <v>436</v>
+        <v>443</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>437</v>
+        <v>444</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="6" t="s">
-        <v>438</v>
+        <v>445</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>440</v>
+        <v>447</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>441</v>
+        <v>448</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="6" t="s">
-        <v>442</v>
+        <v>449</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>443</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="6" t="s">
-        <v>444</v>
+        <v>451</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>445</v>
+        <v>452</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
-        <v>446</v>
+        <v>453</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>447</v>
+        <v>454</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>449</v>
+        <v>456</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>450</v>
+        <v>457</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>451</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>452</v>
+        <v>459</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>453</v>
+        <v>460</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="6" t="s">
-        <v>454</v>
+        <v>461</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>455</v>
+        <v>462</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="6" t="s">
-        <v>456</v>
+        <v>463</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>457</v>
+        <v>464</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="6" t="s">
-        <v>458</v>
+        <v>465</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>459</v>
+        <v>466</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="6" t="s">
-        <v>460</v>
+        <v>467</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>461</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="6" t="s">
-        <v>462</v>
+        <v>469</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="6" t="s">
-        <v>464</v>
+        <v>471</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>465</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6" t="s">
-        <v>466</v>
+        <v>473</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>467</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="6" t="s">
-        <v>468</v>
+        <v>475</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>469</v>
+        <v>476</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="6" t="s">
-        <v>470</v>
+        <v>477</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>471</v>
+        <v>478</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="6" t="s">
-        <v>472</v>
+        <v>479</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>473</v>
+        <v>480</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="6" t="s">
-        <v>474</v>
+        <v>481</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>475</v>
+        <v>482</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="6" t="s">
-        <v>476</v>
+        <v>483</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>477</v>
+        <v>484</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="6" t="s">
-        <v>478</v>
+        <v>485</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>479</v>
+        <v>486</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="6" t="s">
-        <v>480</v>
+        <v>487</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>481</v>
+        <v>488</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="6" t="s">
-        <v>482</v>
+        <v>489</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>483</v>
+        <v>490</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="6" t="s">
-        <v>484</v>
+        <v>491</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>485</v>
+        <v>492</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B85" s="7" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B86" s="7" t="s">
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -5180,7 +5311,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="89.2181818181818" customWidth="1"/>
+    <col min="1" max="1" width="89.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
     <col min="4" max="4" width="16.3636363636364" style="4" customWidth="1"/>
@@ -5198,7 +5329,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -5209,74 +5340,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="B2" t="s">
-        <v>487</v>
+        <v>502</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>488</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>490</v>
+        <v>505</v>
       </c>
       <c r="B4" t="s">
-        <v>491</v>
+        <v>506</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>492</v>
+        <v>507</v>
       </c>
       <c r="B5" t="s">
-        <v>493</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>494</v>
+        <v>509</v>
       </c>
       <c r="B6" t="s">
-        <v>495</v>
+        <v>510</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>496</v>
+        <v>511</v>
       </c>
       <c r="B7" t="s">
-        <v>497</v>
+        <v>512</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>498</v>
+        <v>513</v>
       </c>
       <c r="B8" t="s">
-        <v>499</v>
+        <v>514</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="B9" t="s">
-        <v>501</v>
+        <v>516</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>502</v>
+        <v>517</v>
       </c>
       <c r="B10" t="s">
-        <v>503</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -5297,7 +5428,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="89.2181818181818" customWidth="1"/>
+    <col min="1" max="1" width="89.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="37" customWidth="1"/>
     <col min="3" max="3" width="9" style="4"/>
     <col min="4" max="4" width="16.3636363636364" style="4" customWidth="1"/>
@@ -5315,7 +5446,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -5352,7 +5483,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5363,12 +5494,12 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>505</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3" ht="84" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>506</v>
+        <v>521</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -5376,7 +5507,7 @@
     </row>
     <row r="4" ht="56" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>507</v>
+        <v>522</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -5408,15 +5539,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>508</v>
+        <v>523</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>509</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9" ht="154" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>510</v>
+        <v>525</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
@@ -5424,7 +5555,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>511</v>
+        <v>526</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>
@@ -5432,7 +5563,7 @@
     </row>
     <row r="11" ht="42" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>512</v>
+        <v>527</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
@@ -5440,7 +5571,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>513</v>
+        <v>528</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
@@ -5448,10 +5579,10 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>514</v>
+        <v>529</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>515</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5464,7 +5595,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>516</v>
+        <v>531</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>37</v>
@@ -5472,31 +5603,31 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>517</v>
+        <v>532</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>518</v>
+        <v>533</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>519</v>
+        <v>534</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>520</v>
+        <v>535</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>521</v>
+        <v>536</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>522</v>
+        <v>537</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>42</v>
@@ -5504,7 +5635,7 @@
     </row>
     <row r="20" ht="154" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>523</v>
+        <v>538</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>44</v>
@@ -5512,7 +5643,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>524</v>
+        <v>539</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>46</v>
@@ -5520,7 +5651,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>525</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -5543,8 +5674,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="97.1" style="1" customWidth="1"/>
-    <col min="2" max="2" width="34.0727272727273" style="1" customWidth="1"/>
+    <col min="1" max="1" width="97.0909090909091" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.0909090909091" style="1" customWidth="1"/>
     <col min="3" max="3" width="24.0909090909091" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.1818181818182" style="1" customWidth="1"/>
     <col min="5" max="5" width="13.9090909090909" style="1" customWidth="1"/>
@@ -5553,7 +5684,7 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5561,31 +5692,31 @@
     </row>
     <row r="2" ht="42" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>526</v>
+        <v>541</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>527</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>528</v>
+        <v>543</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>529</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4" ht="28" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>530</v>
+        <v>545</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>531</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>532</v>
+        <v>547</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>85</v>
@@ -5593,7 +5724,7 @@
     </row>
     <row r="6" ht="56" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>533</v>
+        <v>548</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>87</v>
@@ -5601,15 +5732,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>534</v>
+        <v>549</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>536</v>
+        <v>551</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>91</v>
@@ -5617,15 +5748,15 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>537</v>
+        <v>552</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>535</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>538</v>
+        <v>553</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>96</v>
@@ -5636,20 +5767,20 @@
         <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>539</v>
+        <v>554</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>541</v>
+        <v>556</v>
       </c>
     </row>
     <row r="13" ht="28" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>542</v>
+        <v>557</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>102</v>
@@ -5657,7 +5788,7 @@
     </row>
     <row r="14" ht="28" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>543</v>
+        <v>558</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>104</v>
@@ -5665,7 +5796,7 @@
     </row>
     <row r="15" ht="28" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>544</v>
+        <v>559</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>109</v>
@@ -5673,7 +5804,7 @@
     </row>
     <row r="16" ht="28" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>545</v>
+        <v>560</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>107</v>
@@ -5681,23 +5812,23 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>546</v>
+        <v>561</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>547</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>548</v>
+        <v>563</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>549</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>550</v>
+        <v>565</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>116</v>
@@ -5705,7 +5836,7 @@
     </row>
     <row r="20" ht="28" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>551</v>
+        <v>566</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>118</v>
@@ -5729,7 +5860,7 @@
     </row>
     <row r="23" ht="28" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>552</v>
+        <v>567</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>126</v>
@@ -5737,7 +5868,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>553</v>
+        <v>568</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>124</v>
@@ -5745,7 +5876,7 @@
     </row>
     <row r="25" ht="28" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>554</v>
+        <v>569</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>128</v>
@@ -5753,7 +5884,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>555</v>
+        <v>570</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>130</v>
@@ -5761,7 +5892,7 @@
     </row>
     <row r="27" ht="28" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>556</v>
+        <v>571</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>132</v>
@@ -5769,7 +5900,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>557</v>
+        <v>572</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>134</v>
@@ -5777,7 +5908,7 @@
     </row>
     <row r="29" ht="28" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>558</v>
+        <v>573</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>136</v>
@@ -5785,15 +5916,15 @@
     </row>
     <row r="30" ht="28" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>559</v>
+        <v>574</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>560</v>
+        <v>575</v>
       </c>
     </row>
     <row r="31" ht="28" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>561</v>
+        <v>576</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>140</v>
@@ -5801,7 +5932,7 @@
     </row>
     <row r="32" ht="28" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>562</v>
+        <v>577</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>142</v>
@@ -5809,7 +5940,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>563</v>
+        <v>578</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>144</v>
@@ -5817,7 +5948,7 @@
     </row>
     <row r="34" ht="56" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>564</v>
+        <v>579</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>146</v>
@@ -5828,7 +5959,7 @@
         <v>147</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>565</v>
+        <v>580</v>
       </c>
     </row>
     <row r="36" ht="56" spans="1:2">
@@ -5836,12 +5967,12 @@
         <v>150</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>567</v>
+        <v>582</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>153</v>
@@ -5849,7 +5980,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>155</v>
@@ -5857,7 +5988,7 @@
     </row>
     <row r="39" ht="28" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>569</v>
+        <v>584</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>157</v>
@@ -5865,7 +5996,7 @@
     </row>
     <row r="40" ht="28" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>570</v>
+        <v>585</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>159</v>
@@ -5873,7 +6004,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>571</v>
+        <v>586</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>161</v>
@@ -5881,7 +6012,7 @@
     </row>
     <row r="42" ht="28" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>572</v>
+        <v>587</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>163</v>
@@ -5889,7 +6020,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>573</v>
+        <v>588</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>165</v>
@@ -5897,7 +6028,7 @@
     </row>
     <row r="44" ht="28" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>574</v>
+        <v>589</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>167</v>
@@ -5905,7 +6036,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>575</v>
+        <v>590</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>169</v>
@@ -5929,7 +6060,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>568</v>
+        <v>583</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>175</v>
@@ -5953,7 +6084,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>576</v>
+        <v>591</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>212</v>
@@ -5961,7 +6092,7 @@
     </row>
     <row r="52" ht="28" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>577</v>
+        <v>592</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>214</v>
@@ -5969,7 +6100,7 @@
     </row>
     <row r="53" ht="28" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>578</v>
+        <v>593</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>216</v>
@@ -5977,7 +6108,7 @@
     </row>
     <row r="54" ht="28" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>579</v>
+        <v>594</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>218</v>
@@ -5985,7 +6116,7 @@
     </row>
     <row r="55" ht="28" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>220</v>
@@ -5993,7 +6124,7 @@
     </row>
     <row r="56" ht="28" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>581</v>
+        <v>596</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>222</v>
@@ -6001,7 +6132,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>582</v>
+        <v>597</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>224</v>
@@ -6009,7 +6140,7 @@
     </row>
     <row r="58" ht="28" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>583</v>
+        <v>598</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>226</v>
@@ -6017,7 +6148,7 @@
     </row>
     <row r="59" ht="28" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>584</v>
+        <v>599</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>228</v>
@@ -6025,7 +6156,7 @@
     </row>
     <row r="60" ht="28" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>585</v>
+        <v>600</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>230</v>
@@ -6033,7 +6164,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>586</v>
+        <v>601</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>228</v>
@@ -6041,7 +6172,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>587</v>
+        <v>602</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>230</v>
@@ -6049,7 +6180,7 @@
     </row>
     <row r="63" ht="28" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>588</v>
+        <v>603</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>234</v>
@@ -6057,7 +6188,7 @@
     </row>
     <row r="64" ht="42" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>589</v>
+        <v>604</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>236</v>
@@ -6065,7 +6196,7 @@
     </row>
     <row r="65" ht="56" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>590</v>
+        <v>605</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>238</v>
@@ -6073,7 +6204,7 @@
     </row>
     <row r="66" ht="42" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>591</v>
+        <v>606</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>240</v>
@@ -6081,7 +6212,7 @@
     </row>
     <row r="67" ht="28" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>242</v>
@@ -6089,7 +6220,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>593</v>
+        <v>608</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>244</v>
@@ -6097,7 +6228,7 @@
     </row>
     <row r="69" ht="56" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>594</v>
+        <v>609</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>246</v>
@@ -6105,7 +6236,7 @@
     </row>
     <row r="70" ht="28" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>595</v>
+        <v>610</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>248</v>
@@ -6113,7 +6244,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>596</v>
+        <v>611</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>250</v>
@@ -6121,7 +6252,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>597</v>
+        <v>612</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>252</v>
@@ -6129,7 +6260,7 @@
     </row>
     <row r="73" ht="28" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>598</v>
+        <v>613</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>254</v>
@@ -6137,7 +6268,7 @@
     </row>
     <row r="74" ht="56" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>599</v>
+        <v>614</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>271</v>
@@ -6145,7 +6276,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>600</v>
+        <v>615</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>278</v>
@@ -6153,7 +6284,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>601</v>
+        <v>616</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>280</v>
@@ -6185,7 +6316,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>504</v>
+        <v>519</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6193,234 +6324,234 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>328</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>603</v>
+        <v>618</v>
       </c>
     </row>
     <row r="5" ht="112" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>604</v>
+        <v>619</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>332</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6" ht="42" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>605</v>
+        <v>620</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>606</v>
+        <v>621</v>
       </c>
     </row>
     <row r="7" ht="42" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>607</v>
+        <v>622</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" ht="42" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>608</v>
+        <v>623</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" ht="42" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>609</v>
+        <v>624</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>610</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10" ht="42" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>611</v>
+        <v>626</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>612</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>346</v>
+        <v>353</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>347</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>348</v>
+        <v>355</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>349</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>350</v>
+        <v>357</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>351</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>613</v>
+        <v>628</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>353</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16" ht="56" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>614</v>
+        <v>629</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>615</v>
+        <v>630</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>361</v>
+        <v>368</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>616</v>
+        <v>631</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>363</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>617</v>
+        <v>632</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>618</v>
+        <v>633</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>366</v>
+        <v>373</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>368</v>
+        <v>375</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>369</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" ht="70" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>619</v>
+        <v>634</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>373</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>620</v>
+        <v>635</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>375</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>621</v>
+        <v>636</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>377</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" ht="210" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>622</v>
+        <v>637</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>623</v>
+        <v>638</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>624</v>
+        <v>639</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>381</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>625</v>
+        <v>640</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>626</v>
+        <v>641</v>
       </c>
     </row>
     <row r="28" ht="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>627</v>
+        <v>642</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>387</v>
+        <v>394</v>
       </c>
     </row>
     <row r="29" ht="28" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>628</v>
+        <v>643</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>629</v>
+        <v>644</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>630</v>
+        <v>645</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>631</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>

--- a/tool/notepad_zbinfile/zbin/J9_Log.xlsx
+++ b/tool/notepad_zbinfile/zbin/J9_Log.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7000" tabRatio="842" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12400" tabRatio="842" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="COMMON" sheetId="13" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="829" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="702">
   <si>
     <t>关键词</t>
   </si>
@@ -1050,6 +1050,99 @@
     <t>Wifi网络断开</t>
   </si>
   <si>
+    <t>Detected_Channel_Num = 0</t>
+  </si>
+  <si>
+    <t>搜索的信道channel数量为0,无法搜到网络</t>
+  </si>
+  <si>
+    <t>hostapd : wlan0: AP-ENABLED</t>
+  </si>
+  <si>
+    <t>热点打开事件</t>
+  </si>
+  <si>
+    <t>fatal error received:</t>
+  </si>
+  <si>
+    <t>接收到奔溃事件发生</t>
+  </si>
+  <si>
+    <t>Forcing crash.</t>
+  </si>
+  <si>
+    <t>强制奔溃</t>
+  </si>
+  <si>
+    <t xml:space="preserve">crash detected in </t>
+  </si>
+  <si>
+    <t>检测到奔溃</t>
+  </si>
+  <si>
+    <t>IMS not registered over IWLAN</t>
+  </si>
+  <si>
+    <t>没有注册IMS</t>
+  </si>
+  <si>
+    <t>P2P-GROUP-STARTED p2p0 GO ssid</t>
+  </si>
+  <si>
+    <t>WifiP2P连接开始</t>
+  </si>
+  <si>
+    <t>p2p0: AP-STA-CONNECTED</t>
+  </si>
+  <si>
+    <t>WifiP2P我端地址连接成功</t>
+  </si>
+  <si>
+    <t>Connected to Wifi display</t>
+  </si>
+  <si>
+    <t>成功连接到WifiDispaly</t>
+  </si>
+  <si>
+    <t>WFDMMSRCSTATS: Average Round Trip Time</t>
+  </si>
+  <si>
+    <t>WifiDisplay回传RTT时间</t>
+  </si>
+  <si>
+    <t>Non-framework location</t>
+  </si>
+  <si>
+    <t>运营商网络位置NFW请求</t>
+  </si>
+  <si>
+    <t>The connected wifi stations have changed with count</t>
+  </si>
+  <si>
+    <t>热点连接设备数量变化</t>
+  </si>
+  <si>
+    <t>HalDevMgr: getBestIfaceCreationProposal</t>
+  </si>
+  <si>
+    <t>热点_Wifi并发相关Chipinfo配置信息</t>
+  </si>
+  <si>
+    <t>HalDevMgr: ChipConcurrencyCombo</t>
+  </si>
+  <si>
+    <t>并发接口组合【1_STA,2_AP,3_AP_Bridge,4_P2P,5_NAN】</t>
+  </si>
+  <si>
+    <t>NetworkSpeedController</t>
+  </si>
+  <si>
+    <t>当前网络打印Log</t>
+  </si>
+  <si>
+    <t>(REQ INFO) link speed</t>
+  </si>
+  <si>
     <t>是否过滤重复</t>
   </si>
   <si>
@@ -1332,6 +1425,12 @@
     <t>发送地图给高德地图</t>
   </si>
   <si>
+    <t>Sending Location to com.motorola.camera3</t>
+  </si>
+  <si>
+    <t>发送位置信息给照相机</t>
+  </si>
+  <si>
     <t>Sending Location to com.motorola.duogpstest</t>
   </si>
   <si>
@@ -1558,6 +1657,60 @@
   </si>
   <si>
     <t>百度定位成功</t>
+  </si>
+  <si>
+    <t>gps provider added registration from</t>
+  </si>
+  <si>
+    <t>GPS请求定位</t>
+  </si>
+  <si>
+    <t>network provider added registration from</t>
+  </si>
+  <si>
+    <t>NPL请求定位</t>
+  </si>
+  <si>
+    <t>LocSvc_APIClientBase: onResponseCb</t>
+  </si>
+  <si>
+    <t>如果打印 ERROR 那么可能GPS无法搜星</t>
+  </si>
+  <si>
+    <t>is_assist_req=</t>
+  </si>
+  <si>
+    <t>AGPS辅助数据请求</t>
+  </si>
+  <si>
+    <t xml:space="preserve">agps2_mgr_session_req  </t>
+  </si>
+  <si>
+    <t>AGPS Session请求</t>
+  </si>
+  <si>
+    <t>isSuplApn</t>
+  </si>
+  <si>
+    <t>请求SUPL地址 FQDN 和 SuplApn如果是true那么使用Supl专用接入名</t>
+  </si>
+  <si>
+    <t>LocSvc_LocApiBase: reportSv</t>
+  </si>
+  <si>
+    <t>上报卫星情况</t>
+  </si>
+  <si>
+    <t>LocSvc_xtra2: timeOutCallback:</t>
+  </si>
+  <si>
+    <t>高通xtra请求的第一条Log</t>
+  </si>
+  <si>
+    <t>EVENT_QUERY_XTRA_INFO_REQ</t>
+  </si>
+  <si>
+    <t>请求Xtra数据下载</t>
   </si>
   <si>
     <t>ON A2DP STARTED</t>
@@ -2021,6 +2174,19 @@
   </si>
   <si>
     <t>高通Xtra数据下载成功</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-08 11:24:38.573  1371  1383 E LocSvc_APIClientBase: onResponseCb:997] ERROR: 5 ID: 25
+</t>
+  </si>
+  <si>
+    <t>无法打开GPS进行搜星</t>
+  </si>
+  <si>
+    <t>MNLD    : main_event_hdlr: GPS2MAIN_EVENT_START_DONE  is_assist_req=0</t>
+  </si>
+  <si>
+    <t>没有请求GPS数据</t>
   </si>
 </sst>
 </file>
@@ -3046,7 +3212,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -3388,7 +3554,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -3401,18 +3567,18 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G131"/>
+  <dimension ref="A1:G147"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D139" sqref="D139"/>
+      <selection pane="bottomLeft" activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="71" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.8181818181818" style="1" customWidth="1"/>
+    <col min="2" max="2" width="52.2727272727273" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.5454545454545" style="3" customWidth="1"/>
     <col min="4" max="4" width="19.4545454545455" style="3" customWidth="1"/>
     <col min="5" max="5" width="13.0909090909091" style="3" customWidth="1"/>
@@ -3518,7 +3684,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="11" ht="56" spans="1:2">
+    <row r="11" ht="28" spans="1:2">
       <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
@@ -3526,7 +3692,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" ht="28" spans="1:6">
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
         <v>90</v>
       </c>
@@ -3545,7 +3711,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" ht="28" spans="1:6">
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
         <v>95</v>
       </c>
@@ -3669,7 +3835,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" ht="28" spans="1:2">
+    <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
         <v>125</v>
       </c>
@@ -3693,7 +3859,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="31" ht="28" spans="1:2">
+    <row r="31" spans="1:2">
       <c r="A31" s="1" t="s">
         <v>131</v>
       </c>
@@ -3717,7 +3883,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="34" ht="28" spans="1:2">
+    <row r="34" spans="1:2">
       <c r="A34" s="1" t="s">
         <v>137</v>
       </c>
@@ -3733,7 +3899,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" ht="28" spans="1:2">
+    <row r="36" spans="1:2">
       <c r="A36" s="1" t="s">
         <v>141</v>
       </c>
@@ -3757,7 +3923,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="39" ht="56" spans="1:2">
+    <row r="39" ht="42" spans="1:2">
       <c r="A39" s="1" t="s">
         <v>16</v>
       </c>
@@ -3824,7 +3990,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="47" ht="28" spans="1:2">
+    <row r="47" spans="1:2">
       <c r="A47" s="1" t="s">
         <v>162</v>
       </c>
@@ -3840,7 +4006,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="49" ht="28" spans="1:2">
+    <row r="49" spans="1:2">
       <c r="A49" s="1" t="s">
         <v>166</v>
       </c>
@@ -3931,7 +4097,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="60" ht="42" spans="1:2">
+    <row r="60" ht="28" spans="1:2">
       <c r="A60" s="1" t="s">
         <v>188</v>
       </c>
@@ -3955,7 +4121,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="63" ht="56" spans="1:5">
+    <row r="63" ht="42" spans="1:5">
       <c r="A63" s="1" t="s">
         <v>194</v>
       </c>
@@ -4129,7 +4295,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="84" ht="28" spans="1:2">
+    <row r="84" spans="1:2">
       <c r="A84" s="1" t="s">
         <v>233</v>
       </c>
@@ -4145,7 +4311,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="86" ht="42" spans="1:2">
+    <row r="86" ht="28" spans="1:2">
       <c r="A86" s="1" t="s">
         <v>237</v>
       </c>
@@ -4177,7 +4343,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="90" ht="28" spans="1:2">
+    <row r="90" spans="1:2">
       <c r="A90" s="1" t="s">
         <v>245</v>
       </c>
@@ -4185,7 +4351,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="91" ht="28" spans="1:2">
+    <row r="91" spans="1:2">
       <c r="A91" s="1" t="s">
         <v>247</v>
       </c>
@@ -4346,7 +4512,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="110" ht="42" spans="1:2">
+    <row r="110" ht="28" spans="1:2">
       <c r="A110" s="1" t="s">
         <v>285</v>
       </c>
@@ -4354,7 +4520,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="111" ht="42" spans="1:2">
+    <row r="111" ht="28" spans="1:2">
       <c r="A111" s="1" t="s">
         <v>287</v>
       </c>
@@ -4362,7 +4528,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="112" ht="42" spans="1:2">
+    <row r="112" ht="28" spans="1:2">
       <c r="A112" s="1" t="s">
         <v>289</v>
       </c>
@@ -4386,7 +4552,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="115" ht="42" spans="1:2">
+    <row r="115" ht="28" spans="1:2">
       <c r="A115" s="1" t="s">
         <v>295</v>
       </c>
@@ -4429,7 +4595,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="120" ht="56" spans="1:2">
+    <row r="120" ht="42" spans="1:2">
       <c r="A120" s="1" t="s">
         <v>305</v>
       </c>
@@ -4437,7 +4603,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="121" ht="56" spans="1:2">
+    <row r="121" ht="42" spans="1:2">
       <c r="A121" s="1" t="s">
         <v>307</v>
       </c>
@@ -4532,6 +4698,131 @@
       </c>
       <c r="B131" s="1" t="s">
         <v>330</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -4550,12 +4841,12 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F86"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+      <selection pane="bottomLeft" activeCell="A96" sqref="A96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -4580,7 +4871,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="F1" s="8" t="s">
         <v>5</v>
@@ -4588,709 +4879,789 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>332</v>
+        <v>363</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>333</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5" ht="154" spans="1:3">
       <c r="A5" s="6" t="s">
-        <v>338</v>
+        <v>369</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" ht="56" spans="1:3">
       <c r="A6" s="6" t="s">
-        <v>341</v>
+        <v>372</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
     </row>
     <row r="7" ht="56" spans="1:3">
       <c r="A7" s="6" t="s">
-        <v>343</v>
+        <v>374</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
     </row>
     <row r="8" ht="42" spans="1:3">
       <c r="A8" s="6" t="s">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>346</v>
+        <v>377</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
     </row>
     <row r="9" ht="70" spans="1:3">
       <c r="A9" s="6" t="s">
-        <v>347</v>
+        <v>378</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="6" t="s">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>350</v>
+        <v>381</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="6" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>352</v>
+        <v>383</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="6" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="6" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" ht="28" spans="1:3">
       <c r="A14" s="6" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" ht="84" spans="1:2">
       <c r="A15" s="6" t="s">
-        <v>359</v>
+        <v>390</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="6" t="s">
-        <v>361</v>
+        <v>392</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="6" t="s">
-        <v>363</v>
+        <v>394</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>364</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="6" t="s">
-        <v>365</v>
+        <v>396</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>366</v>
+        <v>397</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="6" t="s">
-        <v>367</v>
+        <v>398</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="6" t="s">
-        <v>369</v>
+        <v>400</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:2">
       <c r="A21" s="6" t="s">
-        <v>371</v>
+        <v>402</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>372</v>
+        <v>403</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" ht="28" spans="1:2">
       <c r="A23" s="7" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="6" t="s">
-        <v>377</v>
+        <v>408</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="6" t="s">
-        <v>379</v>
+        <v>410</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="6" t="s">
-        <v>381</v>
+        <v>412</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="6" t="s">
-        <v>383</v>
+        <v>414</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="6" t="s">
-        <v>385</v>
+        <v>416</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>386</v>
+        <v>417</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>340</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="6" t="s">
-        <v>387</v>
+        <v>418</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="6" t="s">
-        <v>389</v>
+        <v>420</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>390</v>
+        <v>421</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="6" t="s">
-        <v>391</v>
+        <v>422</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>392</v>
+        <v>423</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="6" t="s">
-        <v>393</v>
+        <v>424</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="6" t="s">
-        <v>395</v>
+        <v>426</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>396</v>
+        <v>427</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="6" t="s">
-        <v>397</v>
+        <v>428</v>
       </c>
       <c r="B34" s="7" t="s">
-        <v>398</v>
+        <v>429</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="10" t="s">
-        <v>399</v>
+        <v>430</v>
       </c>
       <c r="B35" s="7" t="s">
-        <v>400</v>
+        <v>431</v>
       </c>
     </row>
     <row r="36" ht="140" spans="1:2">
       <c r="A36" s="10" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
       <c r="B36" s="7" t="s">
-        <v>402</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="6" t="s">
-        <v>403</v>
+        <v>434</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>404</v>
+        <v>435</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="6" t="s">
-        <v>405</v>
+        <v>436</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>406</v>
+        <v>437</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="6" t="s">
-        <v>407</v>
+        <v>438</v>
       </c>
       <c r="B39" s="7" t="s">
-        <v>408</v>
+        <v>439</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="6" t="s">
-        <v>409</v>
+        <v>440</v>
       </c>
       <c r="B40" s="7" t="s">
-        <v>410</v>
+        <v>441</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="6" t="s">
-        <v>411</v>
+        <v>442</v>
       </c>
       <c r="B41" s="7" t="s">
-        <v>412</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="6" t="s">
-        <v>413</v>
+        <v>444</v>
       </c>
       <c r="B42" s="7" t="s">
-        <v>414</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="6" t="s">
-        <v>415</v>
+        <v>446</v>
       </c>
       <c r="B43" s="7" t="s">
-        <v>416</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="6" t="s">
-        <v>417</v>
+        <v>448</v>
       </c>
       <c r="B44" s="7" t="s">
-        <v>418</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="6" t="s">
-        <v>419</v>
+        <v>450</v>
       </c>
       <c r="B45" s="7" t="s">
-        <v>420</v>
+        <v>451</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="6" t="s">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="B46" s="7" t="s">
-        <v>422</v>
+        <v>453</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="6" t="s">
-        <v>423</v>
+        <v>454</v>
       </c>
       <c r="B47" s="7" t="s">
-        <v>424</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="6" t="s">
-        <v>425</v>
+        <v>456</v>
       </c>
       <c r="B48" s="7" t="s">
-        <v>426</v>
+        <v>457</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="6" t="s">
-        <v>427</v>
+        <v>458</v>
       </c>
       <c r="B49" s="7" t="s">
-        <v>428</v>
+        <v>459</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="6" t="s">
-        <v>429</v>
+        <v>460</v>
       </c>
       <c r="B50" s="7" t="s">
-        <v>430</v>
+        <v>461</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="6" t="s">
-        <v>431</v>
+        <v>462</v>
       </c>
       <c r="B51" s="7" t="s">
-        <v>432</v>
+        <v>463</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="6" t="s">
-        <v>433</v>
+        <v>464</v>
       </c>
       <c r="B52" s="7" t="s">
-        <v>434</v>
+        <v>465</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="6" t="s">
-        <v>435</v>
+        <v>466</v>
       </c>
       <c r="B53" s="7" t="s">
-        <v>436</v>
+        <v>467</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="6" t="s">
-        <v>437</v>
+        <v>468</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>438</v>
+        <v>469</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="6" t="s">
-        <v>439</v>
+        <v>470</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>440</v>
+        <v>471</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="6" t="s">
-        <v>441</v>
+        <v>472</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>408</v>
+        <v>473</v>
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="6">
+      <c r="A57" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B57" s="7" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" s="6">
         <v>1176450048</v>
       </c>
-      <c r="B57" s="7" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
-      <c r="A58" s="6" t="s">
-        <v>443</v>
-      </c>
       <c r="B58" s="7" t="s">
-        <v>444</v>
+        <v>475</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="6" t="s">
-        <v>445</v>
+        <v>476</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>446</v>
+        <v>477</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="6" t="s">
-        <v>447</v>
+        <v>478</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>448</v>
+        <v>479</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="6" t="s">
-        <v>449</v>
+        <v>480</v>
       </c>
       <c r="B61" s="7" t="s">
-        <v>450</v>
+        <v>481</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="6" t="s">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="B62" s="7" t="s">
-        <v>452</v>
+        <v>483</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="6" t="s">
-        <v>453</v>
+        <v>484</v>
       </c>
       <c r="B63" s="7" t="s">
-        <v>454</v>
+        <v>485</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="6" t="s">
-        <v>455</v>
+        <v>486</v>
       </c>
       <c r="B64" s="7" t="s">
-        <v>456</v>
+        <v>487</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="6" t="s">
-        <v>457</v>
+        <v>488</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>458</v>
+        <v>489</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="6" t="s">
-        <v>459</v>
+        <v>490</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>460</v>
+        <v>491</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="6" t="s">
-        <v>461</v>
+        <v>492</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>462</v>
+        <v>493</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="6" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>464</v>
+        <v>495</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="6" t="s">
-        <v>465</v>
+        <v>496</v>
       </c>
       <c r="B69" s="7" t="s">
-        <v>466</v>
+        <v>497</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="6" t="s">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="B70" s="7" t="s">
-        <v>468</v>
+        <v>499</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="6" t="s">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="B71" s="7" t="s">
-        <v>470</v>
+        <v>501</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="6" t="s">
-        <v>471</v>
+        <v>502</v>
       </c>
       <c r="B72" s="7" t="s">
-        <v>472</v>
+        <v>503</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="6" t="s">
-        <v>473</v>
+        <v>504</v>
       </c>
       <c r="B73" s="7" t="s">
-        <v>474</v>
+        <v>505</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="6" t="s">
-        <v>475</v>
+        <v>506</v>
       </c>
       <c r="B74" s="7" t="s">
-        <v>476</v>
+        <v>507</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="6" t="s">
-        <v>477</v>
+        <v>508</v>
       </c>
       <c r="B75" s="7" t="s">
-        <v>478</v>
+        <v>509</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="6" t="s">
-        <v>479</v>
+        <v>510</v>
       </c>
       <c r="B76" s="7" t="s">
-        <v>480</v>
+        <v>511</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="6" t="s">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>482</v>
+        <v>513</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="6" t="s">
-        <v>483</v>
+        <v>514</v>
       </c>
       <c r="B78" s="7" t="s">
-        <v>484</v>
+        <v>515</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="6" t="s">
-        <v>485</v>
+        <v>516</v>
       </c>
       <c r="B79" s="7" t="s">
-        <v>486</v>
+        <v>517</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="6" t="s">
-        <v>487</v>
+        <v>518</v>
       </c>
       <c r="B80" s="7" t="s">
-        <v>488</v>
+        <v>519</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="6" t="s">
-        <v>489</v>
+        <v>520</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>490</v>
+        <v>521</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="6" t="s">
-        <v>491</v>
+        <v>522</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>492</v>
+        <v>523</v>
       </c>
     </row>
     <row r="83" spans="1:2">
-      <c r="A83" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>494</v>
+      <c r="A83" s="6" t="s">
+        <v>524</v>
+      </c>
+      <c r="B83" s="7" t="s">
+        <v>525</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="10" t="s">
-        <v>495</v>
+        <v>526</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>496</v>
+        <v>527</v>
       </c>
     </row>
     <row r="85" spans="1:2">
-      <c r="A85" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="B85" s="7" t="s">
-        <v>498</v>
+      <c r="A85" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>529</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="6" t="s">
-        <v>499</v>
+        <v>530</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>500</v>
+        <v>531</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="B87" s="7" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B88" s="7" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B89" s="7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B90" s="7" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B91" s="7" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B92" s="7" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="93" ht="28" spans="1:2">
+      <c r="A93" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="B93" s="7" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" s="6" t="s">
+        <v>546</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B96" s="7" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -5306,7 +5677,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5329,7 +5700,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -5340,74 +5711,74 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>501</v>
+        <v>552</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>553</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>503</v>
+        <v>554</v>
       </c>
       <c r="B3" t="s">
-        <v>504</v>
+        <v>555</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>505</v>
+        <v>556</v>
       </c>
       <c r="B4" t="s">
-        <v>506</v>
+        <v>557</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>507</v>
+        <v>558</v>
       </c>
       <c r="B5" t="s">
-        <v>508</v>
+        <v>559</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>509</v>
+        <v>560</v>
       </c>
       <c r="B6" t="s">
-        <v>510</v>
+        <v>561</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>511</v>
+        <v>562</v>
       </c>
       <c r="B7" t="s">
-        <v>512</v>
+        <v>563</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>513</v>
+        <v>564</v>
       </c>
       <c r="B8" t="s">
-        <v>514</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>515</v>
+        <v>566</v>
       </c>
       <c r="B9" t="s">
-        <v>516</v>
+        <v>567</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>517</v>
+        <v>568</v>
       </c>
       <c r="B10" t="s">
-        <v>518</v>
+        <v>569</v>
       </c>
     </row>
   </sheetData>
@@ -5423,7 +5794,7 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="5"/>
@@ -5446,7 +5817,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>331</v>
+        <v>362</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>5</v>
@@ -5468,7 +5839,7 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -5483,7 +5854,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5494,12 +5865,12 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>520</v>
+        <v>571</v>
       </c>
     </row>
     <row r="3" ht="84" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>521</v>
+        <v>572</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -5507,7 +5878,7 @@
     </row>
     <row r="4" ht="56" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>522</v>
+        <v>573</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>19</v>
@@ -5539,15 +5910,15 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>523</v>
+        <v>574</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>524</v>
+        <v>575</v>
       </c>
     </row>
     <row r="9" ht="154" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>525</v>
+        <v>576</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>27</v>
@@ -5555,7 +5926,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>526</v>
+        <v>577</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>29</v>
@@ -5563,7 +5934,7 @@
     </row>
     <row r="11" ht="42" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>527</v>
+        <v>578</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>33</v>
@@ -5571,7 +5942,7 @@
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>528</v>
+        <v>579</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>35</v>
@@ -5579,10 +5950,10 @@
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>529</v>
+        <v>580</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>530</v>
+        <v>581</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -5595,7 +5966,7 @@
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>531</v>
+        <v>582</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>37</v>
@@ -5603,31 +5974,31 @@
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>532</v>
+        <v>583</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>533</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17" ht="42" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>534</v>
+        <v>585</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>535</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18" ht="56" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>536</v>
+        <v>587</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
     </row>
     <row r="19" ht="42" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>537</v>
+        <v>588</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>42</v>
@@ -5635,7 +6006,7 @@
     </row>
     <row r="20" ht="154" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>538</v>
+        <v>589</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>44</v>
@@ -5643,7 +6014,7 @@
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>539</v>
+        <v>590</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>46</v>
@@ -5651,7 +6022,7 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>540</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -5669,7 +6040,7 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -5684,7 +6055,7 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5692,31 +6063,31 @@
     </row>
     <row r="2" ht="42" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>541</v>
+        <v>592</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>542</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>543</v>
+        <v>594</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>544</v>
+        <v>595</v>
       </c>
     </row>
     <row r="4" ht="28" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>545</v>
+        <v>596</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>546</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>547</v>
+        <v>598</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>85</v>
@@ -5724,7 +6095,7 @@
     </row>
     <row r="6" ht="56" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>548</v>
+        <v>599</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>87</v>
@@ -5732,15 +6103,15 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>549</v>
+        <v>600</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>550</v>
+        <v>601</v>
       </c>
     </row>
     <row r="8" ht="28" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>551</v>
+        <v>602</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>91</v>
@@ -5748,15 +6119,15 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>552</v>
+        <v>603</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>550</v>
+        <v>601</v>
       </c>
     </row>
     <row r="10" ht="28" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>553</v>
+        <v>604</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>96</v>
@@ -5767,20 +6138,20 @@
         <v>97</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>554</v>
+        <v>605</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>555</v>
+        <v>606</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>556</v>
+        <v>607</v>
       </c>
     </row>
     <row r="13" ht="28" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>557</v>
+        <v>608</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>102</v>
@@ -5788,7 +6159,7 @@
     </row>
     <row r="14" ht="28" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>558</v>
+        <v>609</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>104</v>
@@ -5796,7 +6167,7 @@
     </row>
     <row r="15" ht="28" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>559</v>
+        <v>610</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>109</v>
@@ -5804,7 +6175,7 @@
     </row>
     <row r="16" ht="28" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>560</v>
+        <v>611</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>107</v>
@@ -5812,23 +6183,23 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>561</v>
+        <v>612</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>562</v>
+        <v>613</v>
       </c>
     </row>
     <row r="18" ht="42" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>563</v>
+        <v>614</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>564</v>
+        <v>615</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>565</v>
+        <v>616</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>116</v>
@@ -5836,7 +6207,7 @@
     </row>
     <row r="20" ht="28" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>566</v>
+        <v>617</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>118</v>
@@ -5860,7 +6231,7 @@
     </row>
     <row r="23" ht="28" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>567</v>
+        <v>618</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>126</v>
@@ -5868,7 +6239,7 @@
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>568</v>
+        <v>619</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>124</v>
@@ -5876,7 +6247,7 @@
     </row>
     <row r="25" ht="28" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>569</v>
+        <v>620</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>128</v>
@@ -5884,7 +6255,7 @@
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>570</v>
+        <v>621</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>130</v>
@@ -5892,7 +6263,7 @@
     </row>
     <row r="27" ht="28" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>571</v>
+        <v>622</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>132</v>
@@ -5900,7 +6271,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>572</v>
+        <v>623</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>134</v>
@@ -5908,7 +6279,7 @@
     </row>
     <row r="29" ht="28" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>573</v>
+        <v>624</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>136</v>
@@ -5916,15 +6287,15 @@
     </row>
     <row r="30" ht="28" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>574</v>
+        <v>625</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>575</v>
+        <v>626</v>
       </c>
     </row>
     <row r="31" ht="28" spans="1:2">
       <c r="A31" s="1" t="s">
-        <v>576</v>
+        <v>627</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>140</v>
@@ -5932,7 +6303,7 @@
     </row>
     <row r="32" ht="28" spans="1:2">
       <c r="A32" s="1" t="s">
-        <v>577</v>
+        <v>628</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>142</v>
@@ -5940,7 +6311,7 @@
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="1" t="s">
-        <v>578</v>
+        <v>629</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>144</v>
@@ -5948,7 +6319,7 @@
     </row>
     <row r="34" ht="56" spans="1:2">
       <c r="A34" s="1" t="s">
-        <v>579</v>
+        <v>630</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>146</v>
@@ -5959,7 +6330,7 @@
         <v>147</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>580</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" ht="56" spans="1:2">
@@ -5967,12 +6338,12 @@
         <v>150</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>581</v>
+        <v>632</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="1" t="s">
-        <v>582</v>
+        <v>633</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>153</v>
@@ -5980,7 +6351,7 @@
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="1" t="s">
-        <v>583</v>
+        <v>634</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>155</v>
@@ -5988,7 +6359,7 @@
     </row>
     <row r="39" ht="28" spans="1:2">
       <c r="A39" s="1" t="s">
-        <v>584</v>
+        <v>635</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>157</v>
@@ -5996,7 +6367,7 @@
     </row>
     <row r="40" ht="28" spans="1:2">
       <c r="A40" s="1" t="s">
-        <v>585</v>
+        <v>636</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>159</v>
@@ -6004,7 +6375,7 @@
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="1" t="s">
-        <v>586</v>
+        <v>637</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>161</v>
@@ -6012,7 +6383,7 @@
     </row>
     <row r="42" ht="28" spans="1:2">
       <c r="A42" s="1" t="s">
-        <v>587</v>
+        <v>638</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>163</v>
@@ -6020,7 +6391,7 @@
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="1" t="s">
-        <v>588</v>
+        <v>639</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>165</v>
@@ -6028,7 +6399,7 @@
     </row>
     <row r="44" ht="28" spans="1:2">
       <c r="A44" s="1" t="s">
-        <v>589</v>
+        <v>640</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>167</v>
@@ -6036,7 +6407,7 @@
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="1" t="s">
-        <v>590</v>
+        <v>641</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>169</v>
@@ -6060,7 +6431,7 @@
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="1" t="s">
-        <v>583</v>
+        <v>634</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>175</v>
@@ -6084,7 +6455,7 @@
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="1" t="s">
-        <v>591</v>
+        <v>642</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>212</v>
@@ -6092,7 +6463,7 @@
     </row>
     <row r="52" ht="28" spans="1:2">
       <c r="A52" s="1" t="s">
-        <v>592</v>
+        <v>643</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>214</v>
@@ -6100,7 +6471,7 @@
     </row>
     <row r="53" ht="28" spans="1:2">
       <c r="A53" s="1" t="s">
-        <v>593</v>
+        <v>644</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>216</v>
@@ -6108,7 +6479,7 @@
     </row>
     <row r="54" ht="28" spans="1:2">
       <c r="A54" s="1" t="s">
-        <v>594</v>
+        <v>645</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>218</v>
@@ -6116,7 +6487,7 @@
     </row>
     <row r="55" ht="28" spans="1:2">
       <c r="A55" s="1" t="s">
-        <v>595</v>
+        <v>646</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>220</v>
@@ -6124,7 +6495,7 @@
     </row>
     <row r="56" ht="28" spans="1:2">
       <c r="A56" s="1" t="s">
-        <v>596</v>
+        <v>647</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>222</v>
@@ -6132,7 +6503,7 @@
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="1" t="s">
-        <v>597</v>
+        <v>648</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>224</v>
@@ -6140,7 +6511,7 @@
     </row>
     <row r="58" ht="28" spans="1:2">
       <c r="A58" s="1" t="s">
-        <v>598</v>
+        <v>649</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>226</v>
@@ -6148,7 +6519,7 @@
     </row>
     <row r="59" ht="28" spans="1:2">
       <c r="A59" s="1" t="s">
-        <v>599</v>
+        <v>650</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>228</v>
@@ -6156,7 +6527,7 @@
     </row>
     <row r="60" ht="28" spans="1:2">
       <c r="A60" s="1" t="s">
-        <v>600</v>
+        <v>651</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>230</v>
@@ -6164,7 +6535,7 @@
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="1" t="s">
-        <v>601</v>
+        <v>652</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>228</v>
@@ -6172,7 +6543,7 @@
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="1" t="s">
-        <v>602</v>
+        <v>653</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>230</v>
@@ -6180,7 +6551,7 @@
     </row>
     <row r="63" ht="28" spans="1:2">
       <c r="A63" s="1" t="s">
-        <v>603</v>
+        <v>654</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>234</v>
@@ -6188,7 +6559,7 @@
     </row>
     <row r="64" ht="42" spans="1:2">
       <c r="A64" s="1" t="s">
-        <v>604</v>
+        <v>655</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>236</v>
@@ -6196,7 +6567,7 @@
     </row>
     <row r="65" ht="56" spans="1:2">
       <c r="A65" s="1" t="s">
-        <v>605</v>
+        <v>656</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>238</v>
@@ -6204,7 +6575,7 @@
     </row>
     <row r="66" ht="42" spans="1:2">
       <c r="A66" s="1" t="s">
-        <v>606</v>
+        <v>657</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>240</v>
@@ -6212,7 +6583,7 @@
     </row>
     <row r="67" ht="28" spans="1:2">
       <c r="A67" s="1" t="s">
-        <v>607</v>
+        <v>658</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>242</v>
@@ -6220,7 +6591,7 @@
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="1" t="s">
-        <v>608</v>
+        <v>659</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>244</v>
@@ -6228,7 +6599,7 @@
     </row>
     <row r="69" ht="56" spans="1:2">
       <c r="A69" s="1" t="s">
-        <v>609</v>
+        <v>660</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>246</v>
@@ -6236,7 +6607,7 @@
     </row>
     <row r="70" ht="28" spans="1:2">
       <c r="A70" s="1" t="s">
-        <v>610</v>
+        <v>661</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>248</v>
@@ -6244,7 +6615,7 @@
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="1" t="s">
-        <v>611</v>
+        <v>662</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>250</v>
@@ -6252,7 +6623,7 @@
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="1" t="s">
-        <v>612</v>
+        <v>663</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>252</v>
@@ -6260,7 +6631,7 @@
     </row>
     <row r="73" ht="28" spans="1:2">
       <c r="A73" s="1" t="s">
-        <v>613</v>
+        <v>664</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>254</v>
@@ -6268,7 +6639,7 @@
     </row>
     <row r="74" ht="56" spans="1:2">
       <c r="A74" s="1" t="s">
-        <v>614</v>
+        <v>665</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>271</v>
@@ -6276,7 +6647,7 @@
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="1" t="s">
-        <v>615</v>
+        <v>666</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>278</v>
@@ -6284,7 +6655,7 @@
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="1" t="s">
-        <v>616</v>
+        <v>667</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>280</v>
@@ -6300,12 +6671,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A127" sqref="A127"/>
+      <selection pane="bottomLeft" activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="1"/>
@@ -6316,7 +6687,7 @@
   <sheetData>
     <row r="1" ht="48" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6324,234 +6695,250 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>334</v>
+        <v>365</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>335</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>336</v>
+        <v>367</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>337</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="1" t="s">
-        <v>617</v>
+        <v>668</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>618</v>
+        <v>669</v>
       </c>
     </row>
     <row r="5" ht="112" spans="1:2">
       <c r="A5" s="1" t="s">
-        <v>619</v>
+        <v>670</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>339</v>
+        <v>370</v>
       </c>
     </row>
     <row r="6" ht="42" spans="1:2">
       <c r="A6" s="1" t="s">
-        <v>620</v>
+        <v>671</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>621</v>
+        <v>672</v>
       </c>
     </row>
     <row r="7" ht="42" spans="1:2">
       <c r="A7" s="1" t="s">
-        <v>622</v>
+        <v>673</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>342</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" ht="42" spans="1:2">
       <c r="A8" s="1" t="s">
-        <v>623</v>
+        <v>674</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>344</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" ht="42" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>624</v>
+        <v>675</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>625</v>
+        <v>676</v>
       </c>
     </row>
     <row r="10" ht="42" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>626</v>
+        <v>677</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>348</v>
+        <v>379</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>351</v>
+        <v>382</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>627</v>
+        <v>678</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>353</v>
+        <v>384</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>354</v>
+        <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>355</v>
+        <v>386</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>356</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>357</v>
+        <v>388</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>358</v>
+        <v>389</v>
       </c>
     </row>
     <row r="15" ht="56" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>628</v>
+        <v>679</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>360</v>
+        <v>391</v>
       </c>
     </row>
     <row r="16" ht="56" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>629</v>
+        <v>680</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>362</v>
+        <v>393</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="1" t="s">
-        <v>630</v>
+        <v>681</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>368</v>
+        <v>399</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="1" t="s">
-        <v>631</v>
+        <v>682</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>370</v>
+        <v>401</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="1" t="s">
-        <v>632</v>
+        <v>683</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>633</v>
+        <v>684</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="1" t="s">
-        <v>373</v>
+        <v>404</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>374</v>
+        <v>405</v>
       </c>
     </row>
     <row r="21" ht="28" spans="1:2">
       <c r="A21" s="1" t="s">
-        <v>375</v>
+        <v>406</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>376</v>
+        <v>407</v>
       </c>
     </row>
     <row r="22" ht="70" spans="1:2">
       <c r="A22" s="1" t="s">
-        <v>634</v>
+        <v>685</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>380</v>
+        <v>411</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="1" t="s">
-        <v>635</v>
+        <v>686</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>382</v>
+        <v>413</v>
       </c>
     </row>
     <row r="24" ht="42" spans="1:2">
       <c r="A24" s="1" t="s">
-        <v>636</v>
+        <v>687</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>384</v>
+        <v>415</v>
       </c>
     </row>
     <row r="25" ht="210" spans="1:2">
       <c r="A25" s="1" t="s">
-        <v>637</v>
+        <v>688</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>638</v>
+        <v>689</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="1" t="s">
-        <v>639</v>
+        <v>690</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>388</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" ht="42" spans="1:2">
       <c r="A27" s="1" t="s">
-        <v>640</v>
+        <v>691</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>641</v>
+        <v>692</v>
       </c>
     </row>
     <row r="28" ht="28" spans="1:2">
       <c r="A28" s="1" t="s">
-        <v>642</v>
+        <v>693</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>394</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" ht="28" spans="1:2">
       <c r="A29" s="1" t="s">
-        <v>643</v>
+        <v>694</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>644</v>
+        <v>695</v>
       </c>
     </row>
     <row r="30" ht="28" spans="1:2">
       <c r="A30" s="1" t="s">
-        <v>645</v>
+        <v>696</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>646</v>
+        <v>697</v>
+      </c>
+    </row>
+    <row r="31" ht="28" spans="1:2">
+      <c r="A31" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>701</v>
       </c>
     </row>
   </sheetData>
@@ -6566,7 +6953,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A127" sqref="A127"/>
+      <selection activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
